--- a/output/mcgratr01.xlsx
+++ b/output/mcgratr01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="105">
   <si>
     <t>Season</t>
   </si>
@@ -263,6 +263,12 @@
   </si>
   <si>
     <t>PS</t>
+  </si>
+  <si>
+    <t>ORtg</t>
+  </si>
+  <si>
+    <t>DRtg</t>
   </si>
   <si>
     <t>PER</t>
@@ -5557,24 +5563,9715 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AE64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2">
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>1179</v>
+      </c>
+      <c r="J2">
+        <v>5.5</v>
+      </c>
+      <c r="K2">
+        <v>12.2</v>
+      </c>
+      <c r="L2">
+        <v>0.45</v>
+      </c>
+      <c r="M2">
+        <v>0.4</v>
+      </c>
+      <c r="N2">
+        <v>1.3</v>
+      </c>
+      <c r="O2">
+        <v>0.341</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>10.9</v>
+      </c>
+      <c r="R2">
+        <v>0.462</v>
+      </c>
+      <c r="S2">
+        <v>2.4</v>
+      </c>
+      <c r="T2">
+        <v>3.4</v>
+      </c>
+      <c r="U2">
+        <v>0.7120000000000001</v>
+      </c>
+      <c r="V2">
+        <v>3.2</v>
+      </c>
+      <c r="W2">
+        <v>5</v>
+      </c>
+      <c r="X2">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>3</v>
+      </c>
+      <c r="Z2">
+        <v>1.5</v>
+      </c>
+      <c r="AA2">
+        <v>1.9</v>
+      </c>
+      <c r="AB2">
+        <v>2</v>
+      </c>
+      <c r="AC2">
+        <v>2.6</v>
+      </c>
+      <c r="AD2">
+        <v>13.8</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1106</v>
+      </c>
+      <c r="J4">
+        <v>5.5</v>
+      </c>
+      <c r="K4">
+        <v>12.5</v>
+      </c>
+      <c r="L4">
+        <v>0.436</v>
+      </c>
+      <c r="M4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
+        <v>1.1</v>
+      </c>
+      <c r="O4">
+        <v>0.229</v>
+      </c>
+      <c r="P4">
+        <v>5.2</v>
+      </c>
+      <c r="Q4">
+        <v>11.4</v>
+      </c>
+      <c r="R4">
+        <v>0.457</v>
+      </c>
+      <c r="S4">
+        <v>3.7</v>
+      </c>
+      <c r="T4">
+        <v>5.1</v>
+      </c>
+      <c r="U4">
+        <v>0.726</v>
+      </c>
+      <c r="V4">
+        <v>3.9</v>
+      </c>
+      <c r="W4">
+        <v>5.1</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
+        <v>3.7</v>
+      </c>
+      <c r="Z4">
+        <v>1.7</v>
+      </c>
+      <c r="AA4">
+        <v>2.1</v>
+      </c>
+      <c r="AB4">
+        <v>2.6</v>
+      </c>
+      <c r="AC4">
+        <v>3.1</v>
+      </c>
+      <c r="AD4">
+        <v>14.9</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>2462</v>
+      </c>
+      <c r="J6">
+        <v>6.7</v>
+      </c>
+      <c r="K6">
+        <v>14.9</v>
+      </c>
+      <c r="L6">
+        <v>0.451</v>
+      </c>
+      <c r="M6">
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0.277</v>
+      </c>
+      <c r="P6">
+        <v>6.4</v>
+      </c>
+      <c r="Q6">
+        <v>13.9</v>
+      </c>
+      <c r="R6">
+        <v>0.463</v>
+      </c>
+      <c r="S6">
+        <v>4.1</v>
+      </c>
+      <c r="T6">
+        <v>5.7</v>
+      </c>
+      <c r="U6">
+        <v>0.7070000000000001</v>
+      </c>
+      <c r="V6">
+        <v>2.7</v>
+      </c>
+      <c r="W6">
+        <v>4.6</v>
+      </c>
+      <c r="X6">
+        <v>7.3</v>
+      </c>
+      <c r="Y6">
+        <v>3.8</v>
+      </c>
+      <c r="Z6">
+        <v>1.3</v>
+      </c>
+      <c r="AA6">
+        <v>2.2</v>
+      </c>
+      <c r="AB6">
+        <v>2.3</v>
+      </c>
+      <c r="AC6">
+        <v>2.9</v>
+      </c>
+      <c r="AD6">
+        <v>17.7</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>111</v>
+      </c>
+      <c r="J7">
+        <v>5.5</v>
+      </c>
+      <c r="K7">
+        <v>14.3</v>
+      </c>
+      <c r="L7">
+        <v>0.386</v>
+      </c>
+      <c r="M7">
+        <v>0.6</v>
+      </c>
+      <c r="N7">
+        <v>2.3</v>
+      </c>
+      <c r="O7">
+        <v>0.286</v>
+      </c>
+      <c r="P7">
+        <v>4.9</v>
+      </c>
+      <c r="Q7">
+        <v>12</v>
+      </c>
+      <c r="R7">
+        <v>0.405</v>
+      </c>
+      <c r="S7">
+        <v>4.5</v>
+      </c>
+      <c r="T7">
+        <v>5.2</v>
+      </c>
+      <c r="U7">
+        <v>0.875</v>
+      </c>
+      <c r="V7">
+        <v>3.2</v>
+      </c>
+      <c r="W7">
+        <v>3.6</v>
+      </c>
+      <c r="X7">
+        <v>6.8</v>
+      </c>
+      <c r="Y7">
+        <v>2.9</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>1</v>
+      </c>
+      <c r="AB7">
+        <v>3.2</v>
+      </c>
+      <c r="AC7">
+        <v>3.2</v>
+      </c>
+      <c r="AD7">
+        <v>16.2</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>-2351</v>
+      </c>
+      <c r="J8">
+        <v>-1.2</v>
+      </c>
+      <c r="K8">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="L8">
+        <v>-0.065</v>
+      </c>
+      <c r="M8">
+        <v>0.3</v>
+      </c>
+      <c r="N8">
+        <v>1.3</v>
+      </c>
+      <c r="O8">
+        <v>0.009000000000000064</v>
+      </c>
+      <c r="P8">
+        <v>-1.5</v>
+      </c>
+      <c r="Q8">
+        <v>-1.9</v>
+      </c>
+      <c r="R8">
+        <v>-0.05799999999999994</v>
+      </c>
+      <c r="S8">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="T8">
+        <v>-0.5</v>
+      </c>
+      <c r="U8">
+        <v>0.1679999999999999</v>
+      </c>
+      <c r="V8">
+        <v>0.5</v>
+      </c>
+      <c r="W8">
+        <v>-0.9999999999999996</v>
+      </c>
+      <c r="X8">
+        <v>-0.5</v>
+      </c>
+      <c r="Y8">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="Z8">
+        <v>-0.3</v>
+      </c>
+      <c r="AA8">
+        <v>-1.2</v>
+      </c>
+      <c r="AB8">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="AC8">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AD8">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>77</v>
+      </c>
+      <c r="H9">
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>3087</v>
+      </c>
+      <c r="J9">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K9">
+        <v>20.1</v>
+      </c>
+      <c r="L9">
+        <v>0.457</v>
+      </c>
+      <c r="M9">
+        <v>0.7</v>
+      </c>
+      <c r="N9">
+        <v>1.9</v>
+      </c>
+      <c r="O9">
+        <v>0.355</v>
+      </c>
+      <c r="P9">
+        <v>8.5</v>
+      </c>
+      <c r="Q9">
+        <v>18.2</v>
+      </c>
+      <c r="R9">
+        <v>0.468</v>
+      </c>
+      <c r="S9">
+        <v>5</v>
+      </c>
+      <c r="T9">
+        <v>6.8</v>
+      </c>
+      <c r="U9">
+        <v>0.733</v>
+      </c>
+      <c r="V9">
+        <v>2.2</v>
+      </c>
+      <c r="W9">
+        <v>4.5</v>
+      </c>
+      <c r="X9">
+        <v>6.8</v>
+      </c>
+      <c r="Y9">
+        <v>4.1</v>
+      </c>
+      <c r="Z9">
+        <v>1.4</v>
+      </c>
+      <c r="AA9">
+        <v>1.4</v>
+      </c>
+      <c r="AB9">
+        <v>2.3</v>
+      </c>
+      <c r="AC9">
+        <v>1.9</v>
+      </c>
+      <c r="AD9">
+        <v>24.1</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>178</v>
+      </c>
+      <c r="J10">
+        <v>10.3</v>
+      </c>
+      <c r="K10">
+        <v>24.9</v>
+      </c>
+      <c r="L10">
+        <v>0.415</v>
+      </c>
+      <c r="M10">
+        <v>0.4</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>0.2</v>
+      </c>
+      <c r="P10">
+        <v>9.9</v>
+      </c>
+      <c r="Q10">
+        <v>22.9</v>
+      </c>
+      <c r="R10">
+        <v>0.434</v>
+      </c>
+      <c r="S10">
+        <v>6.3</v>
+      </c>
+      <c r="T10">
+        <v>7.7</v>
+      </c>
+      <c r="U10">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="V10">
+        <v>1.2</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
+        <v>5.3</v>
+      </c>
+      <c r="Y10">
+        <v>6.7</v>
+      </c>
+      <c r="Z10">
+        <v>1.4</v>
+      </c>
+      <c r="AA10">
+        <v>1</v>
+      </c>
+      <c r="AB10">
+        <v>1.6</v>
+      </c>
+      <c r="AC10">
+        <v>2.2</v>
+      </c>
+      <c r="AD10">
+        <v>27.3</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>-2909</v>
+      </c>
+      <c r="J11">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="K11">
+        <v>4.799999999999997</v>
+      </c>
+      <c r="L11">
+        <v>-0.04200000000000004</v>
+      </c>
+      <c r="M11">
+        <v>-0.2999999999999999</v>
+      </c>
+      <c r="N11">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="O11">
+        <v>-0.155</v>
+      </c>
+      <c r="P11">
+        <v>1.4</v>
+      </c>
+      <c r="Q11">
+        <v>4.699999999999999</v>
+      </c>
+      <c r="R11">
+        <v>-0.03399999999999997</v>
+      </c>
+      <c r="S11">
+        <v>1.3</v>
+      </c>
+      <c r="T11">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="U11">
+        <v>0.08299999999999996</v>
+      </c>
+      <c r="V11">
+        <v>-1</v>
+      </c>
+      <c r="W11">
+        <v>-0.5</v>
+      </c>
+      <c r="X11">
+        <v>-1.5</v>
+      </c>
+      <c r="Y11">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AB11">
+        <v>-0.6999999999999997</v>
+      </c>
+      <c r="AC11">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AD11">
+        <v>3.199999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>76</v>
+      </c>
+      <c r="H12">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>2912</v>
+      </c>
+      <c r="J12">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K12">
+        <v>19.6</v>
+      </c>
+      <c r="L12">
+        <v>0.451</v>
+      </c>
+      <c r="M12">
+        <v>1.3</v>
+      </c>
+      <c r="N12">
+        <v>3.5</v>
+      </c>
+      <c r="O12">
+        <v>0.364</v>
+      </c>
+      <c r="P12">
+        <v>7.6</v>
+      </c>
+      <c r="Q12">
+        <v>16.1</v>
+      </c>
+      <c r="R12">
+        <v>0.47</v>
+      </c>
+      <c r="S12">
+        <v>5.1</v>
+      </c>
+      <c r="T12">
+        <v>6.9</v>
+      </c>
+      <c r="U12">
+        <v>0.748</v>
+      </c>
+      <c r="V12">
+        <v>1.9</v>
+      </c>
+      <c r="W12">
+        <v>5.5</v>
+      </c>
+      <c r="X12">
+        <v>7.4</v>
+      </c>
+      <c r="Y12">
+        <v>4.9</v>
+      </c>
+      <c r="Z12">
+        <v>1.5</v>
+      </c>
+      <c r="AA12">
+        <v>0.9</v>
+      </c>
+      <c r="AB12">
+        <v>2.3</v>
+      </c>
+      <c r="AC12">
+        <v>1.7</v>
+      </c>
+      <c r="AD12">
+        <v>24.1</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>178</v>
+      </c>
+      <c r="J13">
+        <v>8.5</v>
+      </c>
+      <c r="K13">
+        <v>18.4</v>
+      </c>
+      <c r="L13">
+        <v>0.462</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>3.2</v>
+      </c>
+      <c r="O13">
+        <v>0.313</v>
+      </c>
+      <c r="P13">
+        <v>7.5</v>
+      </c>
+      <c r="Q13">
+        <v>15.2</v>
+      </c>
+      <c r="R13">
+        <v>0.493</v>
+      </c>
+      <c r="S13">
+        <v>6.9</v>
+      </c>
+      <c r="T13">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="U13">
+        <v>0.7390000000000001</v>
+      </c>
+      <c r="V13">
+        <v>1.2</v>
+      </c>
+      <c r="W13">
+        <v>3.8</v>
+      </c>
+      <c r="X13">
+        <v>5.1</v>
+      </c>
+      <c r="Y13">
+        <v>4.4</v>
+      </c>
+      <c r="Z13">
+        <v>0.4</v>
+      </c>
+      <c r="AA13">
+        <v>1.4</v>
+      </c>
+      <c r="AB13">
+        <v>2.6</v>
+      </c>
+      <c r="AC13">
+        <v>2.2</v>
+      </c>
+      <c r="AD13">
+        <v>24.9</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>-2734</v>
+      </c>
+      <c r="J14">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="K14">
+        <v>-1.200000000000003</v>
+      </c>
+      <c r="L14">
+        <v>0.01100000000000001</v>
+      </c>
+      <c r="M14">
+        <v>-0.3</v>
+      </c>
+      <c r="N14">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="O14">
+        <v>-0.05099999999999999</v>
+      </c>
+      <c r="P14">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Q14">
+        <v>-0.9000000000000021</v>
+      </c>
+      <c r="R14">
+        <v>0.02300000000000002</v>
+      </c>
+      <c r="S14">
+        <v>1.800000000000001</v>
+      </c>
+      <c r="T14">
+        <v>2.4</v>
+      </c>
+      <c r="U14">
+        <v>-0.008999999999999897</v>
+      </c>
+      <c r="V14">
+        <v>-0.7</v>
+      </c>
+      <c r="W14">
+        <v>-1.7</v>
+      </c>
+      <c r="X14">
+        <v>-2.300000000000001</v>
+      </c>
+      <c r="Y14">
+        <v>-0.5</v>
+      </c>
+      <c r="Z14">
+        <v>-1.1</v>
+      </c>
+      <c r="AA14">
+        <v>0.4999999999999999</v>
+      </c>
+      <c r="AB14">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AC14">
+        <v>0.5000000000000002</v>
+      </c>
+      <c r="AD14">
+        <v>0.7999999999999972</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>74</v>
+      </c>
+      <c r="I15">
+        <v>2954</v>
+      </c>
+      <c r="J15">
+        <v>10.1</v>
+      </c>
+      <c r="K15">
+        <v>22.1</v>
+      </c>
+      <c r="L15">
+        <v>0.457</v>
+      </c>
+      <c r="M15">
+        <v>2.1</v>
+      </c>
+      <c r="N15">
+        <v>5.5</v>
+      </c>
+      <c r="O15">
+        <v>0.386</v>
+      </c>
+      <c r="P15">
+        <v>8</v>
+      </c>
+      <c r="Q15">
+        <v>16.6</v>
+      </c>
+      <c r="R15">
+        <v>0.481</v>
+      </c>
+      <c r="S15">
+        <v>7</v>
+      </c>
+      <c r="T15">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U15">
+        <v>0.7929999999999999</v>
+      </c>
+      <c r="V15">
+        <v>1.5</v>
+      </c>
+      <c r="W15">
+        <v>4.5</v>
+      </c>
+      <c r="X15">
+        <v>5.9</v>
+      </c>
+      <c r="Y15">
+        <v>5</v>
+      </c>
+      <c r="Z15">
+        <v>1.5</v>
+      </c>
+      <c r="AA15">
+        <v>0.7</v>
+      </c>
+      <c r="AB15">
+        <v>2.4</v>
+      </c>
+      <c r="AC15">
+        <v>1.9</v>
+      </c>
+      <c r="AD15">
+        <v>29.3</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>308</v>
+      </c>
+      <c r="J16">
+        <v>8.6</v>
+      </c>
+      <c r="K16">
+        <v>19.3</v>
+      </c>
+      <c r="L16">
+        <v>0.448</v>
+      </c>
+      <c r="M16">
+        <v>1.9</v>
+      </c>
+      <c r="N16">
+        <v>5.5</v>
+      </c>
+      <c r="O16">
+        <v>0.34</v>
+      </c>
+      <c r="P16">
+        <v>6.8</v>
+      </c>
+      <c r="Q16">
+        <v>13.8</v>
+      </c>
+      <c r="R16">
+        <v>0.492</v>
+      </c>
+      <c r="S16">
+        <v>6.8</v>
+      </c>
+      <c r="T16">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="U16">
+        <v>0.773</v>
+      </c>
+      <c r="V16">
+        <v>1.2</v>
+      </c>
+      <c r="W16">
+        <v>4.3</v>
+      </c>
+      <c r="X16">
+        <v>5.5</v>
+      </c>
+      <c r="Y16">
+        <v>3.9</v>
+      </c>
+      <c r="Z16">
+        <v>1.6</v>
+      </c>
+      <c r="AA16">
+        <v>0.7</v>
+      </c>
+      <c r="AB16">
+        <v>3</v>
+      </c>
+      <c r="AC16">
+        <v>1.9</v>
+      </c>
+      <c r="AD16">
+        <v>25.9</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>-2646</v>
+      </c>
+      <c r="J17">
+        <v>-1.5</v>
+      </c>
+      <c r="K17">
+        <v>-2.800000000000001</v>
+      </c>
+      <c r="L17">
+        <v>-0.009000000000000064</v>
+      </c>
+      <c r="M17">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>-0.04599999999999999</v>
+      </c>
+      <c r="P17">
+        <v>-1.2</v>
+      </c>
+      <c r="Q17">
+        <v>-2.800000000000001</v>
+      </c>
+      <c r="R17">
+        <v>0.01100000000000001</v>
+      </c>
+      <c r="S17">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>-0.01999999999999991</v>
+      </c>
+      <c r="V17">
+        <v>-0.3</v>
+      </c>
+      <c r="W17">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="X17">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="Y17">
+        <v>-1.1</v>
+      </c>
+      <c r="Z17">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>-3.400000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18">
+        <v>67</v>
+      </c>
+      <c r="H18">
+        <v>67</v>
+      </c>
+      <c r="I18">
+        <v>2675</v>
+      </c>
+      <c r="J18">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K18">
+        <v>21.1</v>
+      </c>
+      <c r="L18">
+        <v>0.417</v>
+      </c>
+      <c r="M18">
+        <v>2.3</v>
+      </c>
+      <c r="N18">
+        <v>6.9</v>
+      </c>
+      <c r="O18">
+        <v>0.339</v>
+      </c>
+      <c r="P18">
+        <v>6.4</v>
+      </c>
+      <c r="Q18">
+        <v>14.2</v>
+      </c>
+      <c r="R18">
+        <v>0.455</v>
+      </c>
+      <c r="S18">
+        <v>5.4</v>
+      </c>
+      <c r="T18">
+        <v>6.7</v>
+      </c>
+      <c r="U18">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="V18">
+        <v>1.3</v>
+      </c>
+      <c r="W18">
+        <v>4.1</v>
+      </c>
+      <c r="X18">
+        <v>5.4</v>
+      </c>
+      <c r="Y18">
+        <v>5</v>
+      </c>
+      <c r="Z18">
+        <v>1.3</v>
+      </c>
+      <c r="AA18">
+        <v>0.6</v>
+      </c>
+      <c r="AB18">
+        <v>2.4</v>
+      </c>
+      <c r="AC18">
+        <v>1.7</v>
+      </c>
+      <c r="AD18">
+        <v>25.3</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:31">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <v>78</v>
+      </c>
+      <c r="I20">
+        <v>3182</v>
+      </c>
+      <c r="J20">
+        <v>8.1</v>
+      </c>
+      <c r="K20">
+        <v>18.8</v>
+      </c>
+      <c r="L20">
+        <v>0.431</v>
+      </c>
+      <c r="M20">
+        <v>1.6</v>
+      </c>
+      <c r="N20">
+        <v>4.9</v>
+      </c>
+      <c r="O20">
+        <v>0.326</v>
+      </c>
+      <c r="P20">
+        <v>6.5</v>
+      </c>
+      <c r="Q20">
+        <v>13.9</v>
+      </c>
+      <c r="R20">
+        <v>0.468</v>
+      </c>
+      <c r="S20">
+        <v>4.9</v>
+      </c>
+      <c r="T20">
+        <v>6.3</v>
+      </c>
+      <c r="U20">
+        <v>0.774</v>
+      </c>
+      <c r="V20">
+        <v>0.8</v>
+      </c>
+      <c r="W20">
+        <v>4.7</v>
+      </c>
+      <c r="X20">
+        <v>5.5</v>
+      </c>
+      <c r="Y20">
+        <v>5.1</v>
+      </c>
+      <c r="Z20">
+        <v>1.5</v>
+      </c>
+      <c r="AA20">
+        <v>0.6</v>
+      </c>
+      <c r="AB20">
+        <v>2.3</v>
+      </c>
+      <c r="AC20">
+        <v>1.9</v>
+      </c>
+      <c r="AD20">
+        <v>22.7</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>301</v>
+      </c>
+      <c r="J21">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="K21">
+        <v>20.5</v>
+      </c>
+      <c r="L21">
+        <v>0.456</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>5.5</v>
+      </c>
+      <c r="O21">
+        <v>0.37</v>
+      </c>
+      <c r="P21">
+        <v>7.3</v>
+      </c>
+      <c r="Q21">
+        <v>15</v>
+      </c>
+      <c r="R21">
+        <v>0.488</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21">
+        <v>6.1</v>
+      </c>
+      <c r="U21">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="V21">
+        <v>1.4</v>
+      </c>
+      <c r="W21">
+        <v>4.8</v>
+      </c>
+      <c r="X21">
+        <v>6.2</v>
+      </c>
+      <c r="Y21">
+        <v>5.6</v>
+      </c>
+      <c r="Z21">
+        <v>1.3</v>
+      </c>
+      <c r="AA21">
+        <v>1.2</v>
+      </c>
+      <c r="AB21">
+        <v>3.1</v>
+      </c>
+      <c r="AC21">
+        <v>2.4</v>
+      </c>
+      <c r="AD21">
+        <v>25.7</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-2881</v>
+      </c>
+      <c r="J22">
+        <v>1.200000000000001</v>
+      </c>
+      <c r="K22">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="L22">
+        <v>0.02500000000000002</v>
+      </c>
+      <c r="M22">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="N22">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="O22">
+        <v>0.04399999999999998</v>
+      </c>
+      <c r="P22">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="Q22">
+        <v>1.1</v>
+      </c>
+      <c r="R22">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="T22">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="U22">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="V22">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="W22">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="X22">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="Y22">
+        <v>0.5</v>
+      </c>
+      <c r="Z22">
+        <v>-0.2</v>
+      </c>
+      <c r="AA22">
+        <v>0.6</v>
+      </c>
+      <c r="AB22">
+        <v>0.8000000000000003</v>
+      </c>
+      <c r="AC22">
+        <v>0.5</v>
+      </c>
+      <c r="AD22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23">
+        <v>47</v>
+      </c>
+      <c r="H23">
+        <v>47</v>
+      </c>
+      <c r="I23">
+        <v>1745</v>
+      </c>
+      <c r="J23">
+        <v>8.5</v>
+      </c>
+      <c r="K23">
+        <v>20.9</v>
+      </c>
+      <c r="L23">
+        <v>0.406</v>
+      </c>
+      <c r="M23">
+        <v>1.5</v>
+      </c>
+      <c r="N23">
+        <v>4.8</v>
+      </c>
+      <c r="O23">
+        <v>0.312</v>
+      </c>
+      <c r="P23">
+        <v>7</v>
+      </c>
+      <c r="Q23">
+        <v>16</v>
+      </c>
+      <c r="R23">
+        <v>0.434</v>
+      </c>
+      <c r="S23">
+        <v>5.2</v>
+      </c>
+      <c r="T23">
+        <v>7</v>
+      </c>
+      <c r="U23">
+        <v>0.747</v>
+      </c>
+      <c r="V23">
+        <v>0.9</v>
+      </c>
+      <c r="W23">
+        <v>5.4</v>
+      </c>
+      <c r="X23">
+        <v>6.3</v>
+      </c>
+      <c r="Y23">
+        <v>4.6</v>
+      </c>
+      <c r="Z23">
+        <v>1.2</v>
+      </c>
+      <c r="AA23">
+        <v>0.8</v>
+      </c>
+      <c r="AB23">
+        <v>2.5</v>
+      </c>
+      <c r="AC23">
+        <v>1.8</v>
+      </c>
+      <c r="AD23">
+        <v>23.7</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25">
+        <v>71</v>
+      </c>
+      <c r="H25">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>2539</v>
+      </c>
+      <c r="J25">
+        <v>9</v>
+      </c>
+      <c r="K25">
+        <v>21</v>
+      </c>
+      <c r="L25">
+        <v>0.431</v>
+      </c>
+      <c r="M25">
+        <v>1.8</v>
+      </c>
+      <c r="N25">
+        <v>5.4</v>
+      </c>
+      <c r="O25">
+        <v>0.331</v>
+      </c>
+      <c r="P25">
+        <v>7.3</v>
+      </c>
+      <c r="Q25">
+        <v>15.6</v>
+      </c>
+      <c r="R25">
+        <v>0.466</v>
+      </c>
+      <c r="S25">
+        <v>4.9</v>
+      </c>
+      <c r="T25">
+        <v>6.9</v>
+      </c>
+      <c r="U25">
+        <v>0.7070000000000001</v>
+      </c>
+      <c r="V25">
+        <v>0.8</v>
+      </c>
+      <c r="W25">
+        <v>4.6</v>
+      </c>
+      <c r="X25">
+        <v>5.4</v>
+      </c>
+      <c r="Y25">
+        <v>6.5</v>
+      </c>
+      <c r="Z25">
+        <v>1.3</v>
+      </c>
+      <c r="AA25">
+        <v>0.5</v>
+      </c>
+      <c r="AB25">
+        <v>3</v>
+      </c>
+      <c r="AC25">
+        <v>1.9</v>
+      </c>
+      <c r="AD25">
+        <v>24.8</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>280</v>
+      </c>
+      <c r="J26">
+        <v>8.1</v>
+      </c>
+      <c r="K26">
+        <v>20.6</v>
+      </c>
+      <c r="L26">
+        <v>0.394</v>
+      </c>
+      <c r="M26">
+        <v>1.2</v>
+      </c>
+      <c r="N26">
+        <v>4.6</v>
+      </c>
+      <c r="O26">
+        <v>0.25</v>
+      </c>
+      <c r="P26">
+        <v>6.9</v>
+      </c>
+      <c r="Q26">
+        <v>15.9</v>
+      </c>
+      <c r="R26">
+        <v>0.435</v>
+      </c>
+      <c r="S26">
+        <v>5.4</v>
+      </c>
+      <c r="T26">
+        <v>7.3</v>
+      </c>
+      <c r="U26">
+        <v>0.737</v>
+      </c>
+      <c r="V26">
+        <v>0.6</v>
+      </c>
+      <c r="W26">
+        <v>4.6</v>
+      </c>
+      <c r="X26">
+        <v>5.3</v>
+      </c>
+      <c r="Y26">
+        <v>6.6</v>
+      </c>
+      <c r="Z26">
+        <v>0.6</v>
+      </c>
+      <c r="AA26">
+        <v>0.8</v>
+      </c>
+      <c r="AB26">
+        <v>2.7</v>
+      </c>
+      <c r="AC26">
+        <v>1.5</v>
+      </c>
+      <c r="AD26">
+        <v>22.8</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>-2259</v>
+      </c>
+      <c r="J27">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="K27">
+        <v>-0.3999999999999986</v>
+      </c>
+      <c r="L27">
+        <v>-0.03700000000000003</v>
+      </c>
+      <c r="M27">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="N27">
+        <v>-0.8000000000000007</v>
+      </c>
+      <c r="O27">
+        <v>-0.08100000000000002</v>
+      </c>
+      <c r="P27">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="Q27">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="R27">
+        <v>-0.03100000000000003</v>
+      </c>
+      <c r="S27">
+        <v>0.5</v>
+      </c>
+      <c r="T27">
+        <v>0.3999999999999995</v>
+      </c>
+      <c r="U27">
+        <v>0.02999999999999992</v>
+      </c>
+      <c r="V27">
+        <v>-0.2000000000000001</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="Y27">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="Z27">
+        <v>-0.7000000000000001</v>
+      </c>
+      <c r="AA27">
+        <v>0.3</v>
+      </c>
+      <c r="AB27">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AC27">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AD27">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>62</v>
+      </c>
+      <c r="I28">
+        <v>2440</v>
+      </c>
+      <c r="J28">
+        <v>8.1</v>
+      </c>
+      <c r="K28">
+        <v>19.3</v>
+      </c>
+      <c r="L28">
+        <v>0.419</v>
+      </c>
+      <c r="M28">
+        <v>1.3</v>
+      </c>
+      <c r="N28">
+        <v>4.4</v>
+      </c>
+      <c r="O28">
+        <v>0.292</v>
+      </c>
+      <c r="P28">
+        <v>6.8</v>
+      </c>
+      <c r="Q28">
+        <v>14.9</v>
+      </c>
+      <c r="R28">
+        <v>0.457</v>
+      </c>
+      <c r="S28">
+        <v>3.6</v>
+      </c>
+      <c r="T28">
+        <v>5.3</v>
+      </c>
+      <c r="U28">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="V28">
+        <v>0.6</v>
+      </c>
+      <c r="W28">
+        <v>4.4</v>
+      </c>
+      <c r="X28">
+        <v>5</v>
+      </c>
+      <c r="Y28">
+        <v>5.7</v>
+      </c>
+      <c r="Z28">
+        <v>1</v>
+      </c>
+      <c r="AA28">
+        <v>0.4</v>
+      </c>
+      <c r="AB28">
+        <v>2.4</v>
+      </c>
+      <c r="AC28">
+        <v>1.3</v>
+      </c>
+      <c r="AD28">
+        <v>21.1</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>247</v>
+      </c>
+      <c r="J29">
+        <v>9</v>
+      </c>
+      <c r="K29">
+        <v>21.3</v>
+      </c>
+      <c r="L29">
+        <v>0.425</v>
+      </c>
+      <c r="M29">
+        <v>0.7</v>
+      </c>
+      <c r="N29">
+        <v>3.5</v>
+      </c>
+      <c r="O29">
+        <v>0.208</v>
+      </c>
+      <c r="P29">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Q29">
+        <v>17.8</v>
+      </c>
+      <c r="R29">
+        <v>0.467</v>
+      </c>
+      <c r="S29">
+        <v>4.8</v>
+      </c>
+      <c r="T29">
+        <v>7.7</v>
+      </c>
+      <c r="U29">
+        <v>0.623</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29">
+        <v>6.1</v>
+      </c>
+      <c r="X29">
+        <v>7.1</v>
+      </c>
+      <c r="Y29">
+        <v>6</v>
+      </c>
+      <c r="Z29">
+        <v>1.3</v>
+      </c>
+      <c r="AA29">
+        <v>0.7</v>
+      </c>
+      <c r="AB29">
+        <v>2.6</v>
+      </c>
+      <c r="AC29">
+        <v>1.2</v>
+      </c>
+      <c r="AD29">
+        <v>23.6</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>-2193</v>
+      </c>
+      <c r="J30">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="M30">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="N30">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="O30">
+        <v>-0.08399999999999996</v>
+      </c>
+      <c r="P30">
+        <v>1.500000000000001</v>
+      </c>
+      <c r="Q30">
+        <v>2.9</v>
+      </c>
+      <c r="R30">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="S30">
+        <v>1.2</v>
+      </c>
+      <c r="T30">
+        <v>2.4</v>
+      </c>
+      <c r="U30">
+        <v>-0.06100000000000005</v>
+      </c>
+      <c r="V30">
+        <v>0.4</v>
+      </c>
+      <c r="W30">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="X30">
+        <v>2.1</v>
+      </c>
+      <c r="Y30">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="Z30">
+        <v>0.3</v>
+      </c>
+      <c r="AA30">
+        <v>0.2999999999999999</v>
+      </c>
+      <c r="AB30">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AC30">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AD30">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>1181</v>
+      </c>
+      <c r="J31">
+        <v>5.7</v>
+      </c>
+      <c r="K31">
+        <v>14.8</v>
+      </c>
+      <c r="L31">
+        <v>0.388</v>
+      </c>
+      <c r="M31">
+        <v>1.3</v>
+      </c>
+      <c r="N31">
+        <v>3.6</v>
+      </c>
+      <c r="O31">
+        <v>0.376</v>
+      </c>
+      <c r="P31">
+        <v>4.4</v>
+      </c>
+      <c r="Q31">
+        <v>11.2</v>
+      </c>
+      <c r="R31">
+        <v>0.391</v>
+      </c>
+      <c r="S31">
+        <v>3.8</v>
+      </c>
+      <c r="T31">
+        <v>4.8</v>
+      </c>
+      <c r="U31">
+        <v>0.8009999999999999</v>
+      </c>
+      <c r="V31">
+        <v>0.6</v>
+      </c>
+      <c r="W31">
+        <v>4.1</v>
+      </c>
+      <c r="X31">
+        <v>4.7</v>
+      </c>
+      <c r="Y31">
+        <v>5.3</v>
+      </c>
+      <c r="Z31">
+        <v>1.3</v>
+      </c>
+      <c r="AA31">
+        <v>0.5</v>
+      </c>
+      <c r="AB31">
+        <v>2.1</v>
+      </c>
+      <c r="AC31">
+        <v>1.2</v>
+      </c>
+      <c r="AD31">
+        <v>16.6</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>24</v>
+      </c>
+      <c r="I33">
+        <v>673</v>
+      </c>
+      <c r="J33">
+        <v>4.9</v>
+      </c>
+      <c r="K33">
+        <v>12.6</v>
+      </c>
+      <c r="L33">
+        <v>0.387</v>
+      </c>
+      <c r="M33">
+        <v>0.9</v>
+      </c>
+      <c r="N33">
+        <v>3.4</v>
+      </c>
+      <c r="O33">
+        <v>0.25</v>
+      </c>
+      <c r="P33">
+        <v>4</v>
+      </c>
+      <c r="Q33">
+        <v>9.1</v>
+      </c>
+      <c r="R33">
+        <v>0.439</v>
+      </c>
+      <c r="S33">
+        <v>2.5</v>
+      </c>
+      <c r="T33">
+        <v>3.4</v>
+      </c>
+      <c r="U33">
+        <v>0.746</v>
+      </c>
+      <c r="V33">
+        <v>1.2</v>
+      </c>
+      <c r="W33">
+        <v>3.9</v>
+      </c>
+      <c r="X33">
+        <v>5</v>
+      </c>
+      <c r="Y33">
+        <v>5.3</v>
+      </c>
+      <c r="Z33">
+        <v>0.8</v>
+      </c>
+      <c r="AA33">
+        <v>0.7</v>
+      </c>
+      <c r="AB33">
+        <v>2.4</v>
+      </c>
+      <c r="AC33">
+        <v>2.1</v>
+      </c>
+      <c r="AD33">
+        <v>13.1</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>46</v>
+      </c>
+      <c r="J34">
+        <v>5.5</v>
+      </c>
+      <c r="K34">
+        <v>14.9</v>
+      </c>
+      <c r="L34">
+        <v>0.368</v>
+      </c>
+      <c r="M34">
+        <v>0.8</v>
+      </c>
+      <c r="N34">
+        <v>1.6</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>4.7</v>
+      </c>
+      <c r="Q34">
+        <v>13.3</v>
+      </c>
+      <c r="R34">
+        <v>0.353</v>
+      </c>
+      <c r="S34">
+        <v>3.1</v>
+      </c>
+      <c r="T34">
+        <v>4.7</v>
+      </c>
+      <c r="U34">
+        <v>0.667</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>3.9</v>
+      </c>
+      <c r="X34">
+        <v>3.9</v>
+      </c>
+      <c r="Y34">
+        <v>4.7</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>1.6</v>
+      </c>
+      <c r="AB34">
+        <v>0.8</v>
+      </c>
+      <c r="AC34">
+        <v>1.6</v>
+      </c>
+      <c r="AD34">
+        <v>14.9</v>
+      </c>
+      <c r="AE34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <v>627</v>
+      </c>
+      <c r="J35">
+        <v>4.8</v>
+      </c>
+      <c r="K35">
+        <v>12.4</v>
+      </c>
+      <c r="L35">
+        <v>0.389</v>
+      </c>
+      <c r="M35">
+        <v>0.9</v>
+      </c>
+      <c r="N35">
+        <v>3.6</v>
+      </c>
+      <c r="O35">
+        <v>0.242</v>
+      </c>
+      <c r="P35">
+        <v>4</v>
+      </c>
+      <c r="Q35">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="R35">
+        <v>0.448</v>
+      </c>
+      <c r="S35">
+        <v>2.5</v>
+      </c>
+      <c r="T35">
+        <v>3.3</v>
+      </c>
+      <c r="U35">
+        <v>0.754</v>
+      </c>
+      <c r="V35">
+        <v>1.3</v>
+      </c>
+      <c r="W35">
+        <v>3.8</v>
+      </c>
+      <c r="X35">
+        <v>5.1</v>
+      </c>
+      <c r="Y35">
+        <v>5.3</v>
+      </c>
+      <c r="Z35">
+        <v>0.9</v>
+      </c>
+      <c r="AA35">
+        <v>0.7</v>
+      </c>
+      <c r="AB35">
+        <v>2.5</v>
+      </c>
+      <c r="AC35">
+        <v>2.2</v>
+      </c>
+      <c r="AD35">
+        <v>13</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:31">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:31">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>72</v>
+      </c>
+      <c r="H37">
+        <v>39</v>
+      </c>
+      <c r="I37">
+        <v>1686</v>
+      </c>
+      <c r="J37">
+        <v>4.8</v>
+      </c>
+      <c r="K37">
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <v>0.442</v>
+      </c>
+      <c r="M37">
+        <v>0.6</v>
+      </c>
+      <c r="N37">
+        <v>1.9</v>
+      </c>
+      <c r="O37">
+        <v>0.341</v>
+      </c>
+      <c r="P37">
+        <v>4.2</v>
+      </c>
+      <c r="Q37">
+        <v>9.1</v>
+      </c>
+      <c r="R37">
+        <v>0.462</v>
+      </c>
+      <c r="S37">
+        <v>1.9</v>
+      </c>
+      <c r="T37">
+        <v>2.8</v>
+      </c>
+      <c r="U37">
+        <v>0.698</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37">
+        <v>4.3</v>
+      </c>
+      <c r="X37">
+        <v>5.4</v>
+      </c>
+      <c r="Y37">
+        <v>5.4</v>
+      </c>
+      <c r="Z37">
+        <v>1.4</v>
+      </c>
+      <c r="AA37">
+        <v>0.7</v>
+      </c>
+      <c r="AB37">
+        <v>2.2</v>
+      </c>
+      <c r="AC37">
+        <v>2.2</v>
+      </c>
+      <c r="AD37">
+        <v>12.3</v>
+      </c>
+      <c r="AE37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:31">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:31">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39">
+        <v>52</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>837</v>
+      </c>
+      <c r="J39">
+        <v>4.3</v>
+      </c>
+      <c r="K39">
+        <v>9.9</v>
+      </c>
+      <c r="L39">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="M39">
+        <v>0.6</v>
+      </c>
+      <c r="N39">
+        <v>1.4</v>
+      </c>
+      <c r="O39">
+        <v>0.455</v>
+      </c>
+      <c r="P39">
+        <v>3.7</v>
+      </c>
+      <c r="Q39">
+        <v>8.5</v>
+      </c>
+      <c r="R39">
+        <v>0.434</v>
+      </c>
+      <c r="S39">
+        <v>2.4</v>
+      </c>
+      <c r="T39">
+        <v>3.6</v>
+      </c>
+      <c r="U39">
+        <v>0.675</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39">
+        <v>5.6</v>
+      </c>
+      <c r="X39">
+        <v>6.6</v>
+      </c>
+      <c r="Y39">
+        <v>4.7</v>
+      </c>
+      <c r="Z39">
+        <v>0.7</v>
+      </c>
+      <c r="AA39">
+        <v>0.6</v>
+      </c>
+      <c r="AB39">
+        <v>2.3</v>
+      </c>
+      <c r="AC39">
+        <v>1.5</v>
+      </c>
+      <c r="AD39">
+        <v>11.7</v>
+      </c>
+      <c r="AE39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:31">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>90</v>
+      </c>
+      <c r="J40">
+        <v>4</v>
+      </c>
+      <c r="K40">
+        <v>10.4</v>
+      </c>
+      <c r="L40">
+        <v>0.385</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>1.6</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>4</v>
+      </c>
+      <c r="Q40">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="R40">
+        <v>0.455</v>
+      </c>
+      <c r="S40">
+        <v>2</v>
+      </c>
+      <c r="T40">
+        <v>2.4</v>
+      </c>
+      <c r="U40">
+        <v>0.833</v>
+      </c>
+      <c r="V40">
+        <v>2.4</v>
+      </c>
+      <c r="W40">
+        <v>4.4</v>
+      </c>
+      <c r="X40">
+        <v>6.8</v>
+      </c>
+      <c r="Y40">
+        <v>2.4</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>0.8</v>
+      </c>
+      <c r="AB40">
+        <v>4</v>
+      </c>
+      <c r="AC40">
+        <v>1.6</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:31">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <v>-747</v>
+      </c>
+      <c r="J41">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="K41">
+        <v>0.5</v>
+      </c>
+      <c r="L41">
+        <v>-0.05200000000000005</v>
+      </c>
+      <c r="M41">
+        <v>-0.6</v>
+      </c>
+      <c r="N41">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="O41">
+        <v>-0.455</v>
+      </c>
+      <c r="P41">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="Q41">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="R41">
+        <v>0.02100000000000002</v>
+      </c>
+      <c r="S41">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="T41">
+        <v>-1.2</v>
+      </c>
+      <c r="U41">
+        <v>0.1579999999999999</v>
+      </c>
+      <c r="V41">
+        <v>1.4</v>
+      </c>
+      <c r="W41">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="X41">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="Y41">
+        <v>-2.3</v>
+      </c>
+      <c r="Z41">
+        <v>-0.7</v>
+      </c>
+      <c r="AA41">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="AB41">
+        <v>1.7</v>
+      </c>
+      <c r="AC41">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD41">
+        <v>-1.699999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:31">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>31</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>8.1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>3.5</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>4.6</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>1.2</v>
+      </c>
+      <c r="W42">
+        <v>8.1</v>
+      </c>
+      <c r="X42">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y42">
+        <v>8.1</v>
+      </c>
+      <c r="Z42">
+        <v>2.3</v>
+      </c>
+      <c r="AA42">
+        <v>3.5</v>
+      </c>
+      <c r="AB42">
+        <v>2.3</v>
+      </c>
+      <c r="AC42">
+        <v>1.2</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AE42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:31">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:31">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44">
+        <v>52</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>837</v>
+      </c>
+      <c r="J44">
+        <v>4.3</v>
+      </c>
+      <c r="K44">
+        <v>9.9</v>
+      </c>
+      <c r="L44">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="M44">
+        <v>0.6</v>
+      </c>
+      <c r="N44">
+        <v>1.4</v>
+      </c>
+      <c r="O44">
+        <v>0.455</v>
+      </c>
+      <c r="P44">
+        <v>3.7</v>
+      </c>
+      <c r="Q44">
+        <v>8.5</v>
+      </c>
+      <c r="R44">
+        <v>0.434</v>
+      </c>
+      <c r="S44">
+        <v>2.4</v>
+      </c>
+      <c r="T44">
+        <v>3.6</v>
+      </c>
+      <c r="U44">
+        <v>0.675</v>
+      </c>
+      <c r="V44">
+        <v>1</v>
+      </c>
+      <c r="W44">
+        <v>5.6</v>
+      </c>
+      <c r="X44">
+        <v>6.6</v>
+      </c>
+      <c r="Y44">
+        <v>4.7</v>
+      </c>
+      <c r="Z44">
+        <v>0.7</v>
+      </c>
+      <c r="AA44">
+        <v>0.6</v>
+      </c>
+      <c r="AB44">
+        <v>2.3</v>
+      </c>
+      <c r="AC44">
+        <v>1.5</v>
+      </c>
+      <c r="AD44">
+        <v>11.7</v>
+      </c>
+      <c r="AE44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>90</v>
+      </c>
+      <c r="J45">
+        <v>4</v>
+      </c>
+      <c r="K45">
+        <v>10.4</v>
+      </c>
+      <c r="L45">
+        <v>0.385</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1.6</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>4</v>
+      </c>
+      <c r="Q45">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="R45">
+        <v>0.455</v>
+      </c>
+      <c r="S45">
+        <v>2</v>
+      </c>
+      <c r="T45">
+        <v>2.4</v>
+      </c>
+      <c r="U45">
+        <v>0.833</v>
+      </c>
+      <c r="V45">
+        <v>2.4</v>
+      </c>
+      <c r="W45">
+        <v>4.4</v>
+      </c>
+      <c r="X45">
+        <v>6.8</v>
+      </c>
+      <c r="Y45">
+        <v>2.4</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>0.8</v>
+      </c>
+      <c r="AB45">
+        <v>4</v>
+      </c>
+      <c r="AC45">
+        <v>1.6</v>
+      </c>
+      <c r="AD45">
+        <v>10</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:31">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="I46">
+        <v>-747</v>
+      </c>
+      <c r="J46">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="K46">
+        <v>0.5</v>
+      </c>
+      <c r="L46">
+        <v>-0.05200000000000005</v>
+      </c>
+      <c r="M46">
+        <v>-0.6</v>
+      </c>
+      <c r="N46">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="O46">
+        <v>-0.455</v>
+      </c>
+      <c r="P46">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="Q46">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="R46">
+        <v>0.02100000000000002</v>
+      </c>
+      <c r="S46">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="T46">
+        <v>-1.2</v>
+      </c>
+      <c r="U46">
+        <v>0.1579999999999999</v>
+      </c>
+      <c r="V46">
+        <v>1.4</v>
+      </c>
+      <c r="W46">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="X46">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="Y46">
+        <v>-2.3</v>
+      </c>
+      <c r="Z46">
+        <v>-0.7</v>
+      </c>
+      <c r="AA46">
+        <v>0.2000000000000001</v>
+      </c>
+      <c r="AB46">
+        <v>1.7</v>
+      </c>
+      <c r="AC46">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD46">
+        <v>-1.699999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:31">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47">
+        <v>72</v>
+      </c>
+      <c r="H47">
+        <v>39</v>
+      </c>
+      <c r="I47">
+        <v>1686</v>
+      </c>
+      <c r="J47">
+        <v>4.8</v>
+      </c>
+      <c r="K47">
+        <v>11</v>
+      </c>
+      <c r="L47">
+        <v>0.442</v>
+      </c>
+      <c r="M47">
+        <v>0.6</v>
+      </c>
+      <c r="N47">
+        <v>1.9</v>
+      </c>
+      <c r="O47">
+        <v>0.341</v>
+      </c>
+      <c r="P47">
+        <v>4.2</v>
+      </c>
+      <c r="Q47">
+        <v>9.1</v>
+      </c>
+      <c r="R47">
+        <v>0.462</v>
+      </c>
+      <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
+        <v>2.8</v>
+      </c>
+      <c r="U47">
+        <v>0.698</v>
+      </c>
+      <c r="V47">
+        <v>1</v>
+      </c>
+      <c r="W47">
+        <v>4.3</v>
+      </c>
+      <c r="X47">
+        <v>5.4</v>
+      </c>
+      <c r="Y47">
+        <v>5.4</v>
+      </c>
+      <c r="Z47">
+        <v>1.4</v>
+      </c>
+      <c r="AA47">
+        <v>0.7</v>
+      </c>
+      <c r="AB47">
+        <v>2.2</v>
+      </c>
+      <c r="AC47">
+        <v>2.2</v>
+      </c>
+      <c r="AD47">
+        <v>12.3</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:31">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:31">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49">
+        <v>303</v>
+      </c>
+      <c r="H49">
+        <v>293</v>
+      </c>
+      <c r="I49">
+        <v>11133</v>
+      </c>
+      <c r="J49">
+        <v>8.1</v>
+      </c>
+      <c r="K49">
+        <v>19.3</v>
+      </c>
+      <c r="L49">
+        <v>0.42</v>
+      </c>
+      <c r="M49">
+        <v>1.5</v>
+      </c>
+      <c r="N49">
+        <v>4.7</v>
+      </c>
+      <c r="O49">
+        <v>0.322</v>
+      </c>
+      <c r="P49">
+        <v>6.6</v>
+      </c>
+      <c r="Q49">
+        <v>14.5</v>
+      </c>
+      <c r="R49">
+        <v>0.452</v>
+      </c>
+      <c r="S49">
+        <v>4.5</v>
+      </c>
+      <c r="T49">
+        <v>6.2</v>
+      </c>
+      <c r="U49">
+        <v>0.737</v>
+      </c>
+      <c r="V49">
+        <v>0.8</v>
+      </c>
+      <c r="W49">
+        <v>4.6</v>
+      </c>
+      <c r="X49">
+        <v>5.4</v>
+      </c>
+      <c r="Y49">
+        <v>5.5</v>
+      </c>
+      <c r="Z49">
+        <v>1.3</v>
+      </c>
+      <c r="AA49">
+        <v>0.6</v>
+      </c>
+      <c r="AB49">
+        <v>2.5</v>
+      </c>
+      <c r="AC49">
+        <v>1.7</v>
+      </c>
+      <c r="AD49">
+        <v>22.3</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:31">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>828</v>
+      </c>
+      <c r="J50">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="K50">
+        <v>20.7</v>
+      </c>
+      <c r="L50">
+        <v>0.426</v>
+      </c>
+      <c r="M50">
+        <v>1.3</v>
+      </c>
+      <c r="N50">
+        <v>4.6</v>
+      </c>
+      <c r="O50">
+        <v>0.292</v>
+      </c>
+      <c r="P50">
+        <v>7.5</v>
+      </c>
+      <c r="Q50">
+        <v>16.1</v>
+      </c>
+      <c r="R50">
+        <v>0.464</v>
+      </c>
+      <c r="S50">
+        <v>5.1</v>
+      </c>
+      <c r="T50">
+        <v>7</v>
+      </c>
+      <c r="U50">
+        <v>0.727</v>
+      </c>
+      <c r="V50">
+        <v>1</v>
+      </c>
+      <c r="W50">
+        <v>5.1</v>
+      </c>
+      <c r="X50">
+        <v>6.2</v>
+      </c>
+      <c r="Y50">
+        <v>6</v>
+      </c>
+      <c r="Z50">
+        <v>1.1</v>
+      </c>
+      <c r="AA50">
+        <v>0.9</v>
+      </c>
+      <c r="AB50">
+        <v>2.8</v>
+      </c>
+      <c r="AC50">
+        <v>1.7</v>
+      </c>
+      <c r="AD50">
+        <v>24.1</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:31">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="I51">
+        <v>-10305</v>
+      </c>
+      <c r="J51">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="K51">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="M51">
+        <v>-0.2</v>
+      </c>
+      <c r="N51">
+        <v>-0.1000000000000005</v>
+      </c>
+      <c r="O51">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="P51">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="Q51">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="R51">
+        <v>0.01199999999999996</v>
+      </c>
+      <c r="S51">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="T51">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="U51">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="V51">
+        <v>0.2</v>
+      </c>
+      <c r="W51">
+        <v>0.5</v>
+      </c>
+      <c r="X51">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="Y51">
+        <v>0.5</v>
+      </c>
+      <c r="Z51">
+        <v>-0.2</v>
+      </c>
+      <c r="AA51">
+        <v>0.3</v>
+      </c>
+      <c r="AB51">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AC51">
+        <v>0</v>
+      </c>
+      <c r="AD51">
+        <v>1.800000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+      <c r="H52">
+        <v>24</v>
+      </c>
+      <c r="I52">
+        <v>627</v>
+      </c>
+      <c r="J52">
+        <v>4.8</v>
+      </c>
+      <c r="K52">
+        <v>12.4</v>
+      </c>
+      <c r="L52">
+        <v>0.389</v>
+      </c>
+      <c r="M52">
+        <v>0.9</v>
+      </c>
+      <c r="N52">
+        <v>3.6</v>
+      </c>
+      <c r="O52">
+        <v>0.242</v>
+      </c>
+      <c r="P52">
+        <v>4</v>
+      </c>
+      <c r="Q52">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="R52">
+        <v>0.448</v>
+      </c>
+      <c r="S52">
+        <v>2.5</v>
+      </c>
+      <c r="T52">
+        <v>3.3</v>
+      </c>
+      <c r="U52">
+        <v>0.754</v>
+      </c>
+      <c r="V52">
+        <v>1.3</v>
+      </c>
+      <c r="W52">
+        <v>3.8</v>
+      </c>
+      <c r="X52">
+        <v>5.1</v>
+      </c>
+      <c r="Y52">
+        <v>5.3</v>
+      </c>
+      <c r="Z52">
+        <v>0.9</v>
+      </c>
+      <c r="AA52">
+        <v>0.7</v>
+      </c>
+      <c r="AB52">
+        <v>2.5</v>
+      </c>
+      <c r="AC52">
+        <v>2.2</v>
+      </c>
+      <c r="AD52">
+        <v>13</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:31">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54">
+        <v>295</v>
+      </c>
+      <c r="H54">
+        <v>294</v>
+      </c>
+      <c r="I54">
+        <v>11628</v>
+      </c>
+      <c r="J54">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K54">
+        <v>20.7</v>
+      </c>
+      <c r="L54">
+        <v>0.446</v>
+      </c>
+      <c r="M54">
+        <v>1.6</v>
+      </c>
+      <c r="N54">
+        <v>4.4</v>
+      </c>
+      <c r="O54">
+        <v>0.361</v>
+      </c>
+      <c r="P54">
+        <v>7.7</v>
+      </c>
+      <c r="Q54">
+        <v>16.3</v>
+      </c>
+      <c r="R54">
+        <v>0.469</v>
+      </c>
+      <c r="S54">
+        <v>5.6</v>
+      </c>
+      <c r="T54">
+        <v>7.3</v>
+      </c>
+      <c r="U54">
+        <v>0.768</v>
+      </c>
+      <c r="V54">
+        <v>1.7</v>
+      </c>
+      <c r="W54">
+        <v>4.7</v>
+      </c>
+      <c r="X54">
+        <v>6.4</v>
+      </c>
+      <c r="Y54">
+        <v>4.7</v>
+      </c>
+      <c r="Z54">
+        <v>1.4</v>
+      </c>
+      <c r="AA54">
+        <v>0.9</v>
+      </c>
+      <c r="AB54">
+        <v>2.4</v>
+      </c>
+      <c r="AC54">
+        <v>1.8</v>
+      </c>
+      <c r="AD54">
+        <v>25.7</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:31">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <v>664</v>
+      </c>
+      <c r="J55">
+        <v>9.1</v>
+      </c>
+      <c r="K55">
+        <v>20.5</v>
+      </c>
+      <c r="L55">
+        <v>0.441</v>
+      </c>
+      <c r="M55">
+        <v>1.2</v>
+      </c>
+      <c r="N55">
+        <v>4</v>
+      </c>
+      <c r="O55">
+        <v>0.315</v>
+      </c>
+      <c r="P55">
+        <v>7.8</v>
+      </c>
+      <c r="Q55">
+        <v>16.6</v>
+      </c>
+      <c r="R55">
+        <v>0.471</v>
+      </c>
+      <c r="S55">
+        <v>6.7</v>
+      </c>
+      <c r="T55">
+        <v>8.6</v>
+      </c>
+      <c r="U55">
+        <v>0.774</v>
+      </c>
+      <c r="V55">
+        <v>1.2</v>
+      </c>
+      <c r="W55">
+        <v>4.1</v>
+      </c>
+      <c r="X55">
+        <v>5.3</v>
+      </c>
+      <c r="Y55">
+        <v>4.8</v>
+      </c>
+      <c r="Z55">
+        <v>1.2</v>
+      </c>
+      <c r="AA55">
+        <v>1</v>
+      </c>
+      <c r="AB55">
+        <v>2.5</v>
+      </c>
+      <c r="AC55">
+        <v>2.1</v>
+      </c>
+      <c r="AD55">
+        <v>26</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:31">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="I56">
+        <v>-10964</v>
+      </c>
+      <c r="J56">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="K56">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="L56">
+        <v>-0.005000000000000004</v>
+      </c>
+      <c r="M56">
+        <v>-0.4000000000000001</v>
+      </c>
+      <c r="N56">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="O56">
+        <v>-0.04599999999999999</v>
+      </c>
+      <c r="P56">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="Q56">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="R56">
+        <v>0.002000000000000057</v>
+      </c>
+      <c r="S56">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="T56">
+        <v>1.3</v>
+      </c>
+      <c r="U56">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="V56">
+        <v>-0.5</v>
+      </c>
+      <c r="W56">
+        <v>-0.6000000000000005</v>
+      </c>
+      <c r="X56">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="Y56">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="Z56">
+        <v>-0.2</v>
+      </c>
+      <c r="AA56">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="AB56">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AC56">
+        <v>0.3</v>
+      </c>
+      <c r="AD56">
+        <v>0.3000000000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="1:31">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>31</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>8.1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>3.5</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>4.6</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>1.2</v>
+      </c>
+      <c r="W57">
+        <v>8.1</v>
+      </c>
+      <c r="X57">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Y57">
+        <v>8.1</v>
+      </c>
+      <c r="Z57">
+        <v>2.3</v>
+      </c>
+      <c r="AA57">
+        <v>3.5</v>
+      </c>
+      <c r="AB57">
+        <v>2.3</v>
+      </c>
+      <c r="AC57">
+        <v>1.2</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AE57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:31">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:31">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59">
+        <v>192</v>
+      </c>
+      <c r="H59">
+        <v>53</v>
+      </c>
+      <c r="I59">
+        <v>4747</v>
+      </c>
+      <c r="J59">
+        <v>6.1</v>
+      </c>
+      <c r="K59">
+        <v>13.7</v>
+      </c>
+      <c r="L59">
+        <v>0.448</v>
+      </c>
+      <c r="M59">
+        <v>0.3</v>
+      </c>
+      <c r="N59">
+        <v>1.1</v>
+      </c>
+      <c r="O59">
+        <v>0.284</v>
+      </c>
+      <c r="P59">
+        <v>5.8</v>
+      </c>
+      <c r="Q59">
+        <v>12.6</v>
+      </c>
+      <c r="R59">
+        <v>0.461</v>
+      </c>
+      <c r="S59">
+        <v>3.6</v>
+      </c>
+      <c r="T59">
+        <v>5</v>
+      </c>
+      <c r="U59">
+        <v>0.7120000000000001</v>
+      </c>
+      <c r="V59">
+        <v>3.1</v>
+      </c>
+      <c r="W59">
+        <v>4.8</v>
+      </c>
+      <c r="X59">
+        <v>7.9</v>
+      </c>
+      <c r="Y59">
+        <v>3.6</v>
+      </c>
+      <c r="Z59">
+        <v>1.4</v>
+      </c>
+      <c r="AA59">
+        <v>2.1</v>
+      </c>
+      <c r="AB59">
+        <v>2.3</v>
+      </c>
+      <c r="AC59">
+        <v>2.9</v>
+      </c>
+      <c r="AD59">
+        <v>16.1</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:31">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>111</v>
+      </c>
+      <c r="J60">
+        <v>5.5</v>
+      </c>
+      <c r="K60">
+        <v>14.3</v>
+      </c>
+      <c r="L60">
+        <v>0.386</v>
+      </c>
+      <c r="M60">
+        <v>0.6</v>
+      </c>
+      <c r="N60">
+        <v>2.3</v>
+      </c>
+      <c r="O60">
+        <v>0.286</v>
+      </c>
+      <c r="P60">
+        <v>4.9</v>
+      </c>
+      <c r="Q60">
+        <v>12</v>
+      </c>
+      <c r="R60">
+        <v>0.405</v>
+      </c>
+      <c r="S60">
+        <v>4.5</v>
+      </c>
+      <c r="T60">
+        <v>5.2</v>
+      </c>
+      <c r="U60">
+        <v>0.875</v>
+      </c>
+      <c r="V60">
+        <v>3.2</v>
+      </c>
+      <c r="W60">
+        <v>3.6</v>
+      </c>
+      <c r="X60">
+        <v>6.8</v>
+      </c>
+      <c r="Y60">
+        <v>2.9</v>
+      </c>
+      <c r="Z60">
+        <v>1</v>
+      </c>
+      <c r="AA60">
+        <v>1</v>
+      </c>
+      <c r="AB60">
+        <v>3.2</v>
+      </c>
+      <c r="AC60">
+        <v>3.2</v>
+      </c>
+      <c r="AD60">
+        <v>16.2</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:31">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="I61">
+        <v>-4636</v>
+      </c>
+      <c r="J61">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="K61">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="L61">
+        <v>-0.06199999999999994</v>
+      </c>
+      <c r="M61">
+        <v>0.3</v>
+      </c>
+      <c r="N61">
+        <v>1.2</v>
+      </c>
+      <c r="O61">
+        <v>0.002000000000000057</v>
+      </c>
+      <c r="P61">
+        <v>-0.8999999999999995</v>
+      </c>
+      <c r="Q61">
+        <v>-0.5999999999999996</v>
+      </c>
+      <c r="R61">
+        <v>-0.05599999999999999</v>
+      </c>
+      <c r="S61">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="T61">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="U61">
+        <v>0.1629999999999999</v>
+      </c>
+      <c r="V61">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="W61">
+        <v>-1.2</v>
+      </c>
+      <c r="X61">
+        <v>-1.100000000000001</v>
+      </c>
+      <c r="Y61">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="Z61">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AA61">
+        <v>-1.1</v>
+      </c>
+      <c r="AB61">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="AC61">
+        <v>0.3000000000000003</v>
+      </c>
+      <c r="AD61">
+        <v>0.09999999999999787</v>
+      </c>
+    </row>
+    <row r="62" spans="1:31">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62">
+        <v>938</v>
+      </c>
+      <c r="H62">
+        <v>703</v>
+      </c>
+      <c r="I62">
+        <v>30658</v>
+      </c>
+      <c r="J62">
+        <v>7.9</v>
+      </c>
+      <c r="K62">
+        <v>18.1</v>
+      </c>
+      <c r="L62">
+        <v>0.435</v>
+      </c>
+      <c r="M62">
+        <v>1.3</v>
+      </c>
+      <c r="N62">
+        <v>3.8</v>
+      </c>
+      <c r="O62">
+        <v>0.338</v>
+      </c>
+      <c r="P62">
+        <v>6.6</v>
+      </c>
+      <c r="Q62">
+        <v>14.3</v>
+      </c>
+      <c r="R62">
+        <v>0.461</v>
+      </c>
+      <c r="S62">
+        <v>4.6</v>
+      </c>
+      <c r="T62">
+        <v>6.1</v>
+      </c>
+      <c r="U62">
+        <v>0.746</v>
+      </c>
+      <c r="V62">
+        <v>1.5</v>
+      </c>
+      <c r="W62">
+        <v>4.7</v>
+      </c>
+      <c r="X62">
+        <v>6.2</v>
+      </c>
+      <c r="Y62">
+        <v>4.9</v>
+      </c>
+      <c r="Z62">
+        <v>1.3</v>
+      </c>
+      <c r="AA62">
+        <v>0.9</v>
+      </c>
+      <c r="AB62">
+        <v>2.4</v>
+      </c>
+      <c r="AC62">
+        <v>2</v>
+      </c>
+      <c r="AD62">
+        <v>21.6</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:31">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63">
+        <v>50</v>
+      </c>
+      <c r="H63">
+        <v>38</v>
+      </c>
+      <c r="I63">
+        <v>1724</v>
+      </c>
+      <c r="J63">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="K63">
+        <v>19.5</v>
+      </c>
+      <c r="L63">
+        <v>0.426</v>
+      </c>
+      <c r="M63">
+        <v>1.2</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <v>0.29</v>
+      </c>
+      <c r="P63">
+        <v>7.1</v>
+      </c>
+      <c r="Q63">
+        <v>15.5</v>
+      </c>
+      <c r="R63">
+        <v>0.461</v>
+      </c>
+      <c r="S63">
+        <v>5.4</v>
+      </c>
+      <c r="T63">
+        <v>7.1</v>
+      </c>
+      <c r="U63">
+        <v>0.757</v>
+      </c>
+      <c r="V63">
+        <v>1.3</v>
+      </c>
+      <c r="W63">
+        <v>4.7</v>
+      </c>
+      <c r="X63">
+        <v>6</v>
+      </c>
+      <c r="Y63">
+        <v>5.2</v>
+      </c>
+      <c r="Z63">
+        <v>1.1</v>
+      </c>
+      <c r="AA63">
+        <v>1</v>
+      </c>
+      <c r="AB63">
+        <v>2.8</v>
+      </c>
+      <c r="AC63">
+        <v>1.9</v>
+      </c>
+      <c r="AD63">
+        <v>23.2</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:31">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="I64">
+        <v>-28934</v>
+      </c>
+      <c r="J64">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="K64">
+        <v>1.399999999999999</v>
+      </c>
+      <c r="L64">
+        <v>-0.009000000000000008</v>
+      </c>
+      <c r="M64">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="N64">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="O64">
+        <v>-0.04799999999999999</v>
+      </c>
+      <c r="P64">
+        <v>0.5</v>
+      </c>
+      <c r="Q64">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>0.01100000000000001</v>
+      </c>
+      <c r="V64">
+        <v>-0.2</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="Y64">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="Z64">
+        <v>-0.2</v>
+      </c>
+      <c r="AA64">
+        <v>0.09999999999999998</v>
+      </c>
+      <c r="AB64">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AC64">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AD64">
+        <v>1.599999999999998</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AH64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:34">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2">
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2">
+        <v>1179</v>
+      </c>
+      <c r="J2">
+        <v>7.9</v>
+      </c>
+      <c r="K2">
+        <v>17.5</v>
+      </c>
+      <c r="L2">
+        <v>0.45</v>
+      </c>
+      <c r="M2">
+        <v>0.6</v>
+      </c>
+      <c r="N2">
+        <v>1.8</v>
+      </c>
+      <c r="O2">
+        <v>0.341</v>
+      </c>
+      <c r="P2">
+        <v>7.3</v>
+      </c>
+      <c r="Q2">
+        <v>15.7</v>
+      </c>
+      <c r="R2">
+        <v>0.462</v>
+      </c>
+      <c r="S2">
+        <v>3.5</v>
+      </c>
+      <c r="T2">
+        <v>4.9</v>
+      </c>
+      <c r="U2">
+        <v>0.7120000000000001</v>
+      </c>
+      <c r="V2">
+        <v>4.6</v>
+      </c>
+      <c r="W2">
+        <v>7.2</v>
+      </c>
+      <c r="X2">
+        <v>11.8</v>
+      </c>
+      <c r="Y2">
+        <v>4.3</v>
+      </c>
+      <c r="Z2">
+        <v>2.2</v>
+      </c>
+      <c r="AA2">
+        <v>2.7</v>
+      </c>
+      <c r="AB2">
+        <v>2.9</v>
+      </c>
+      <c r="AC2">
+        <v>3.8</v>
+      </c>
+      <c r="AD2">
+        <v>19.8</v>
+      </c>
+      <c r="AF2">
+        <v>106</v>
+      </c>
+      <c r="AG2">
+        <v>109</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G4">
+        <v>49</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1106</v>
+      </c>
+      <c r="J4">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="K4">
+        <v>18.8</v>
+      </c>
+      <c r="L4">
+        <v>0.436</v>
+      </c>
+      <c r="M4">
+        <v>0.4</v>
+      </c>
+      <c r="N4">
+        <v>1.7</v>
+      </c>
+      <c r="O4">
+        <v>0.229</v>
+      </c>
+      <c r="P4">
+        <v>7.8</v>
+      </c>
+      <c r="Q4">
+        <v>17.1</v>
+      </c>
+      <c r="R4">
+        <v>0.457</v>
+      </c>
+      <c r="S4">
+        <v>5.6</v>
+      </c>
+      <c r="T4">
+        <v>7.7</v>
+      </c>
+      <c r="U4">
+        <v>0.726</v>
+      </c>
+      <c r="V4">
+        <v>5.9</v>
+      </c>
+      <c r="W4">
+        <v>7.7</v>
+      </c>
+      <c r="X4">
+        <v>13.6</v>
+      </c>
+      <c r="Y4">
+        <v>5.5</v>
+      </c>
+      <c r="Z4">
+        <v>2.5</v>
+      </c>
+      <c r="AA4">
+        <v>3.2</v>
+      </c>
+      <c r="AB4">
+        <v>3.9</v>
+      </c>
+      <c r="AC4">
+        <v>4.6</v>
+      </c>
+      <c r="AD4">
+        <v>22.4</v>
+      </c>
+      <c r="AF4">
+        <v>106</v>
+      </c>
+      <c r="AG4">
+        <v>100</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6">
+        <v>79</v>
+      </c>
+      <c r="H6">
+        <v>34</v>
+      </c>
+      <c r="I6">
+        <v>2462</v>
+      </c>
+      <c r="J6">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="K6">
+        <v>21.5</v>
+      </c>
+      <c r="L6">
+        <v>0.451</v>
+      </c>
+      <c r="M6">
+        <v>0.4</v>
+      </c>
+      <c r="N6">
+        <v>1.4</v>
+      </c>
+      <c r="O6">
+        <v>0.277</v>
+      </c>
+      <c r="P6">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Q6">
+        <v>20.1</v>
+      </c>
+      <c r="R6">
+        <v>0.463</v>
+      </c>
+      <c r="S6">
+        <v>5.8</v>
+      </c>
+      <c r="T6">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U6">
+        <v>0.7070000000000001</v>
+      </c>
+      <c r="V6">
+        <v>4</v>
+      </c>
+      <c r="W6">
+        <v>6.6</v>
+      </c>
+      <c r="X6">
+        <v>10.6</v>
+      </c>
+      <c r="Y6">
+        <v>5.5</v>
+      </c>
+      <c r="Z6">
+        <v>1.9</v>
+      </c>
+      <c r="AA6">
+        <v>3.2</v>
+      </c>
+      <c r="AB6">
+        <v>3.4</v>
+      </c>
+      <c r="AC6">
+        <v>4.2</v>
+      </c>
+      <c r="AD6">
+        <v>25.6</v>
+      </c>
+      <c r="AF6">
+        <v>106</v>
+      </c>
+      <c r="AG6">
+        <v>103</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7">
+        <v>3</v>
+      </c>
+      <c r="H7">
+        <v>3</v>
+      </c>
+      <c r="I7">
+        <v>111</v>
+      </c>
+      <c r="J7">
+        <v>8.5</v>
+      </c>
+      <c r="K7">
+        <v>22.1</v>
+      </c>
+      <c r="L7">
+        <v>0.386</v>
+      </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
+      <c r="N7">
+        <v>3.5</v>
+      </c>
+      <c r="O7">
+        <v>0.286</v>
+      </c>
+      <c r="P7">
+        <v>7.5</v>
+      </c>
+      <c r="Q7">
+        <v>18.6</v>
+      </c>
+      <c r="R7">
+        <v>0.405</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>8</v>
+      </c>
+      <c r="U7">
+        <v>0.875</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>5.5</v>
+      </c>
+      <c r="X7">
+        <v>10.6</v>
+      </c>
+      <c r="Y7">
+        <v>4.5</v>
+      </c>
+      <c r="Z7">
+        <v>1.5</v>
+      </c>
+      <c r="AA7">
+        <v>1.5</v>
+      </c>
+      <c r="AB7">
+        <v>5</v>
+      </c>
+      <c r="AC7">
+        <v>5</v>
+      </c>
+      <c r="AD7">
+        <v>25.1</v>
+      </c>
+      <c r="AF7">
+        <v>97</v>
+      </c>
+      <c r="AG7">
+        <v>103</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>-2351</v>
+      </c>
+      <c r="J8">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="K8">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="L8">
+        <v>-0.065</v>
+      </c>
+      <c r="M8">
+        <v>0.6</v>
+      </c>
+      <c r="N8">
+        <v>2.1</v>
+      </c>
+      <c r="O8">
+        <v>0.009000000000000064</v>
+      </c>
+      <c r="P8">
+        <v>-1.800000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>-1.5</v>
+      </c>
+      <c r="R8">
+        <v>-0.05799999999999994</v>
+      </c>
+      <c r="S8">
+        <v>1.2</v>
+      </c>
+      <c r="T8">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="U8">
+        <v>0.1679999999999999</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8">
+        <v>-1.1</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>-1</v>
+      </c>
+      <c r="Z8">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="AA8">
+        <v>-1.7</v>
+      </c>
+      <c r="AB8">
+        <v>1.6</v>
+      </c>
+      <c r="AC8">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="AD8">
+        <v>-0.5</v>
+      </c>
+      <c r="AF8">
+        <v>-9</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9">
+        <v>77</v>
+      </c>
+      <c r="H9">
+        <v>77</v>
+      </c>
+      <c r="I9">
+        <v>3087</v>
+      </c>
+      <c r="J9">
+        <v>13.2</v>
+      </c>
+      <c r="K9">
+        <v>28.8</v>
+      </c>
+      <c r="L9">
+        <v>0.457</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>2.8</v>
+      </c>
+      <c r="O9">
+        <v>0.355</v>
+      </c>
+      <c r="P9">
+        <v>12.2</v>
+      </c>
+      <c r="Q9">
+        <v>26</v>
+      </c>
+      <c r="R9">
+        <v>0.468</v>
+      </c>
+      <c r="S9">
+        <v>7.2</v>
+      </c>
+      <c r="T9">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U9">
+        <v>0.733</v>
+      </c>
+      <c r="V9">
+        <v>3.2</v>
+      </c>
+      <c r="W9">
+        <v>6.5</v>
+      </c>
+      <c r="X9">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Y9">
+        <v>5.9</v>
+      </c>
+      <c r="Z9">
+        <v>1.9</v>
+      </c>
+      <c r="AA9">
+        <v>2</v>
+      </c>
+      <c r="AB9">
+        <v>3.3</v>
+      </c>
+      <c r="AC9">
+        <v>2.7</v>
+      </c>
+      <c r="AD9">
+        <v>34.5</v>
+      </c>
+      <c r="AF9">
+        <v>109</v>
+      </c>
+      <c r="AG9">
+        <v>101</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>178</v>
+      </c>
+      <c r="J10">
+        <v>14.8</v>
+      </c>
+      <c r="K10">
+        <v>35.7</v>
+      </c>
+      <c r="L10">
+        <v>0.415</v>
+      </c>
+      <c r="M10">
+        <v>0.6</v>
+      </c>
+      <c r="N10">
+        <v>2.9</v>
+      </c>
+      <c r="O10">
+        <v>0.2</v>
+      </c>
+      <c r="P10">
+        <v>14.2</v>
+      </c>
+      <c r="Q10">
+        <v>32.8</v>
+      </c>
+      <c r="R10">
+        <v>0.434</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>11</v>
+      </c>
+      <c r="U10">
+        <v>0.8159999999999999</v>
+      </c>
+      <c r="V10">
+        <v>1.7</v>
+      </c>
+      <c r="W10">
+        <v>5.8</v>
+      </c>
+      <c r="X10">
+        <v>7.6</v>
+      </c>
+      <c r="Y10">
+        <v>9.6</v>
+      </c>
+      <c r="Z10">
+        <v>2</v>
+      </c>
+      <c r="AA10">
+        <v>1.5</v>
+      </c>
+      <c r="AB10">
+        <v>2.3</v>
+      </c>
+      <c r="AC10">
+        <v>3.2</v>
+      </c>
+      <c r="AD10">
+        <v>39.2</v>
+      </c>
+      <c r="AF10">
+        <v>110</v>
+      </c>
+      <c r="AG10">
+        <v>114</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>-2909</v>
+      </c>
+      <c r="J11">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="K11">
+        <v>6.900000000000002</v>
+      </c>
+      <c r="L11">
+        <v>-0.04200000000000004</v>
+      </c>
+      <c r="M11">
+        <v>-0.4</v>
+      </c>
+      <c r="N11">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="O11">
+        <v>-0.155</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
+      </c>
+      <c r="Q11">
+        <v>6.799999999999997</v>
+      </c>
+      <c r="R11">
+        <v>-0.03399999999999997</v>
+      </c>
+      <c r="S11">
+        <v>1.8</v>
+      </c>
+      <c r="T11">
+        <v>1.199999999999999</v>
+      </c>
+      <c r="U11">
+        <v>0.08299999999999996</v>
+      </c>
+      <c r="V11">
+        <v>-1.5</v>
+      </c>
+      <c r="W11">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="X11">
+        <v>-2.1</v>
+      </c>
+      <c r="Y11">
+        <v>3.699999999999999</v>
+      </c>
+      <c r="Z11">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AA11">
+        <v>-0.5</v>
+      </c>
+      <c r="AB11">
+        <v>-1</v>
+      </c>
+      <c r="AC11">
+        <v>0.5</v>
+      </c>
+      <c r="AD11">
+        <v>4.700000000000003</v>
+      </c>
+      <c r="AF11">
+        <v>1</v>
+      </c>
+      <c r="AG11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G12">
+        <v>76</v>
+      </c>
+      <c r="H12">
+        <v>76</v>
+      </c>
+      <c r="I12">
+        <v>2912</v>
+      </c>
+      <c r="J12">
+        <v>12.6</v>
+      </c>
+      <c r="K12">
+        <v>28.1</v>
+      </c>
+      <c r="L12">
+        <v>0.451</v>
+      </c>
+      <c r="M12">
+        <v>1.8</v>
+      </c>
+      <c r="N12">
+        <v>5</v>
+      </c>
+      <c r="O12">
+        <v>0.364</v>
+      </c>
+      <c r="P12">
+        <v>10.8</v>
+      </c>
+      <c r="Q12">
+        <v>23</v>
+      </c>
+      <c r="R12">
+        <v>0.47</v>
+      </c>
+      <c r="S12">
+        <v>7.3</v>
+      </c>
+      <c r="T12">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="U12">
+        <v>0.748</v>
+      </c>
+      <c r="V12">
+        <v>2.7</v>
+      </c>
+      <c r="W12">
+        <v>7.9</v>
+      </c>
+      <c r="X12">
+        <v>10.6</v>
+      </c>
+      <c r="Y12">
+        <v>7.1</v>
+      </c>
+      <c r="Z12">
+        <v>2.1</v>
+      </c>
+      <c r="AA12">
+        <v>1.3</v>
+      </c>
+      <c r="AB12">
+        <v>3.3</v>
+      </c>
+      <c r="AC12">
+        <v>2.5</v>
+      </c>
+      <c r="AD12">
+        <v>34.5</v>
+      </c>
+      <c r="AF12">
+        <v>111</v>
+      </c>
+      <c r="AG12">
+        <v>103</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" t="s">
+        <v>77</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>178</v>
+      </c>
+      <c r="J13">
+        <v>12.9</v>
+      </c>
+      <c r="K13">
+        <v>27.9</v>
+      </c>
+      <c r="L13">
+        <v>0.462</v>
+      </c>
+      <c r="M13">
+        <v>1.5</v>
+      </c>
+      <c r="N13">
+        <v>4.9</v>
+      </c>
+      <c r="O13">
+        <v>0.313</v>
+      </c>
+      <c r="P13">
+        <v>11.3</v>
+      </c>
+      <c r="Q13">
+        <v>23</v>
+      </c>
+      <c r="R13">
+        <v>0.493</v>
+      </c>
+      <c r="S13">
+        <v>10.4</v>
+      </c>
+      <c r="T13">
+        <v>14.1</v>
+      </c>
+      <c r="U13">
+        <v>0.7390000000000001</v>
+      </c>
+      <c r="V13">
+        <v>1.8</v>
+      </c>
+      <c r="W13">
+        <v>5.8</v>
+      </c>
+      <c r="X13">
+        <v>7.7</v>
+      </c>
+      <c r="Y13">
+        <v>6.7</v>
+      </c>
+      <c r="Z13">
+        <v>0.6</v>
+      </c>
+      <c r="AA13">
+        <v>2.1</v>
+      </c>
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <v>3.4</v>
+      </c>
+      <c r="AD13">
+        <v>37.7</v>
+      </c>
+      <c r="AF13">
+        <v>108</v>
+      </c>
+      <c r="AG13">
+        <v>108</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:34">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="I14">
+        <v>-2734</v>
+      </c>
+      <c r="J14">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="K14">
+        <v>-0.2000000000000028</v>
+      </c>
+      <c r="L14">
+        <v>0.01100000000000001</v>
+      </c>
+      <c r="M14">
+        <v>-0.3</v>
+      </c>
+      <c r="N14">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="O14">
+        <v>-0.05099999999999999</v>
+      </c>
+      <c r="P14">
+        <v>0.5</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0.02300000000000002</v>
+      </c>
+      <c r="S14">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="T14">
+        <v>4.299999999999999</v>
+      </c>
+      <c r="U14">
+        <v>-0.008999999999999897</v>
+      </c>
+      <c r="V14">
+        <v>-0.9000000000000001</v>
+      </c>
+      <c r="W14">
+        <v>-2.100000000000001</v>
+      </c>
+      <c r="X14">
+        <v>-2.899999999999999</v>
+      </c>
+      <c r="Y14">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="Z14">
+        <v>-1.5</v>
+      </c>
+      <c r="AA14">
+        <v>0.8</v>
+      </c>
+      <c r="AB14">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="AC14">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AD14">
+        <v>3.200000000000003</v>
+      </c>
+      <c r="AF14">
+        <v>-3</v>
+      </c>
+      <c r="AG14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15">
+        <v>75</v>
+      </c>
+      <c r="H15">
+        <v>74</v>
+      </c>
+      <c r="I15">
+        <v>2954</v>
+      </c>
+      <c r="J15">
+        <v>14.5</v>
+      </c>
+      <c r="K15">
+        <v>31.6</v>
+      </c>
+      <c r="L15">
+        <v>0.457</v>
+      </c>
+      <c r="M15">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>7.8</v>
+      </c>
+      <c r="O15">
+        <v>0.386</v>
+      </c>
+      <c r="P15">
+        <v>11.5</v>
+      </c>
+      <c r="Q15">
+        <v>23.8</v>
+      </c>
+      <c r="R15">
+        <v>0.481</v>
+      </c>
+      <c r="S15">
+        <v>10.1</v>
+      </c>
+      <c r="T15">
+        <v>12.7</v>
+      </c>
+      <c r="U15">
+        <v>0.7929999999999999</v>
+      </c>
+      <c r="V15">
+        <v>2.1</v>
+      </c>
+      <c r="W15">
+        <v>6.4</v>
+      </c>
+      <c r="X15">
+        <v>8.5</v>
+      </c>
+      <c r="Y15">
+        <v>7.2</v>
+      </c>
+      <c r="Z15">
+        <v>2.2</v>
+      </c>
+      <c r="AA15">
+        <v>1</v>
+      </c>
+      <c r="AB15">
+        <v>3.4</v>
+      </c>
+      <c r="AC15">
+        <v>2.7</v>
+      </c>
+      <c r="AD15">
+        <v>42</v>
+      </c>
+      <c r="AF15">
+        <v>116</v>
+      </c>
+      <c r="AG15">
+        <v>104</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" t="s">
+        <v>79</v>
+      </c>
+      <c r="G16">
+        <v>7</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>308</v>
+      </c>
+      <c r="J16">
+        <v>13.1</v>
+      </c>
+      <c r="K16">
+        <v>29.2</v>
+      </c>
+      <c r="L16">
+        <v>0.448</v>
+      </c>
+      <c r="M16">
+        <v>2.8</v>
+      </c>
+      <c r="N16">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="O16">
+        <v>0.34</v>
+      </c>
+      <c r="P16">
+        <v>10.3</v>
+      </c>
+      <c r="Q16">
+        <v>20.9</v>
+      </c>
+      <c r="R16">
+        <v>0.492</v>
+      </c>
+      <c r="S16">
+        <v>10.3</v>
+      </c>
+      <c r="T16">
+        <v>13.3</v>
+      </c>
+      <c r="U16">
+        <v>0.773</v>
+      </c>
+      <c r="V16">
+        <v>1.8</v>
+      </c>
+      <c r="W16">
+        <v>6.6</v>
+      </c>
+      <c r="X16">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="Y16">
+        <v>5.8</v>
+      </c>
+      <c r="Z16">
+        <v>2.5</v>
+      </c>
+      <c r="AA16">
+        <v>1.1</v>
+      </c>
+      <c r="AB16">
+        <v>4.6</v>
+      </c>
+      <c r="AC16">
+        <v>2.8</v>
+      </c>
+      <c r="AD16">
+        <v>39.3</v>
+      </c>
+      <c r="AF16">
+        <v>110</v>
+      </c>
+      <c r="AG16">
+        <v>105</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:34">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="I17">
+        <v>-2646</v>
+      </c>
+      <c r="J17">
+        <v>-1.4</v>
+      </c>
+      <c r="K17">
+        <v>-2.400000000000002</v>
+      </c>
+      <c r="L17">
+        <v>-0.009000000000000064</v>
+      </c>
+      <c r="M17">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="N17">
+        <v>0.5000000000000009</v>
+      </c>
+      <c r="O17">
+        <v>-0.04599999999999999</v>
+      </c>
+      <c r="P17">
+        <v>-1.199999999999999</v>
+      </c>
+      <c r="Q17">
+        <v>-2.900000000000002</v>
+      </c>
+      <c r="R17">
+        <v>0.01100000000000001</v>
+      </c>
+      <c r="S17">
+        <v>0.2000000000000011</v>
+      </c>
+      <c r="T17">
+        <v>0.6000000000000014</v>
+      </c>
+      <c r="U17">
+        <v>-0.01999999999999991</v>
+      </c>
+      <c r="V17">
+        <v>-0.3</v>
+      </c>
+      <c r="W17">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="X17">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="Y17">
+        <v>-1.4</v>
+      </c>
+      <c r="Z17">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="AA17">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AB17">
+        <v>1.2</v>
+      </c>
+      <c r="AC17">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="AD17">
+        <v>-2.700000000000003</v>
+      </c>
+      <c r="AF17">
+        <v>-6</v>
+      </c>
+      <c r="AG17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:34">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>77</v>
+      </c>
+      <c r="F18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G18">
+        <v>67</v>
+      </c>
+      <c r="H18">
+        <v>67</v>
+      </c>
+      <c r="I18">
+        <v>2675</v>
+      </c>
+      <c r="J18">
+        <v>12.9</v>
+      </c>
+      <c r="K18">
+        <v>30.9</v>
+      </c>
+      <c r="L18">
+        <v>0.417</v>
+      </c>
+      <c r="M18">
+        <v>3.4</v>
+      </c>
+      <c r="N18">
+        <v>10.1</v>
+      </c>
+      <c r="O18">
+        <v>0.339</v>
+      </c>
+      <c r="P18">
+        <v>9.5</v>
+      </c>
+      <c r="Q18">
+        <v>20.8</v>
+      </c>
+      <c r="R18">
+        <v>0.455</v>
+      </c>
+      <c r="S18">
+        <v>7.9</v>
+      </c>
+      <c r="T18">
+        <v>9.9</v>
+      </c>
+      <c r="U18">
+        <v>0.7959999999999999</v>
+      </c>
+      <c r="V18">
+        <v>1.9</v>
+      </c>
+      <c r="W18">
+        <v>6.1</v>
+      </c>
+      <c r="X18">
+        <v>7.9</v>
+      </c>
+      <c r="Y18">
+        <v>7.3</v>
+      </c>
+      <c r="Z18">
+        <v>1.8</v>
+      </c>
+      <c r="AA18">
+        <v>0.8</v>
+      </c>
+      <c r="AB18">
+        <v>3.5</v>
+      </c>
+      <c r="AC18">
+        <v>2.5</v>
+      </c>
+      <c r="AD18">
+        <v>37.1</v>
+      </c>
+      <c r="AF18">
+        <v>110</v>
+      </c>
+      <c r="AG18">
+        <v>110</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:34">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:34">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20">
+        <v>78</v>
+      </c>
+      <c r="H20">
+        <v>78</v>
+      </c>
+      <c r="I20">
+        <v>3182</v>
+      </c>
+      <c r="J20">
+        <v>12.2</v>
+      </c>
+      <c r="K20">
+        <v>28.2</v>
+      </c>
+      <c r="L20">
+        <v>0.431</v>
+      </c>
+      <c r="M20">
+        <v>2.4</v>
+      </c>
+      <c r="N20">
+        <v>7.4</v>
+      </c>
+      <c r="O20">
+        <v>0.326</v>
+      </c>
+      <c r="P20">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q20">
+        <v>20.8</v>
+      </c>
+      <c r="R20">
+        <v>0.468</v>
+      </c>
+      <c r="S20">
+        <v>7.3</v>
+      </c>
+      <c r="T20">
+        <v>9.5</v>
+      </c>
+      <c r="U20">
+        <v>0.774</v>
+      </c>
+      <c r="V20">
+        <v>1.2</v>
+      </c>
+      <c r="W20">
+        <v>7</v>
+      </c>
+      <c r="X20">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Y20">
+        <v>7.6</v>
+      </c>
+      <c r="Z20">
+        <v>2.3</v>
+      </c>
+      <c r="AA20">
+        <v>0.9</v>
+      </c>
+      <c r="AB20">
+        <v>3.4</v>
+      </c>
+      <c r="AC20">
+        <v>2.8</v>
+      </c>
+      <c r="AD20">
+        <v>34</v>
+      </c>
+      <c r="AF20">
+        <v>109</v>
+      </c>
+      <c r="AG20">
+        <v>101</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:34">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21">
+        <v>7</v>
+      </c>
+      <c r="H21">
+        <v>7</v>
+      </c>
+      <c r="I21">
+        <v>301</v>
+      </c>
+      <c r="J21">
+        <v>14.2</v>
+      </c>
+      <c r="K21">
+        <v>31.2</v>
+      </c>
+      <c r="L21">
+        <v>0.456</v>
+      </c>
+      <c r="M21">
+        <v>3.1</v>
+      </c>
+      <c r="N21">
+        <v>8.4</v>
+      </c>
+      <c r="O21">
+        <v>0.37</v>
+      </c>
+      <c r="P21">
+        <v>11.1</v>
+      </c>
+      <c r="Q21">
+        <v>22.8</v>
+      </c>
+      <c r="R21">
+        <v>0.488</v>
+      </c>
+      <c r="S21">
+        <v>7.7</v>
+      </c>
+      <c r="T21">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="U21">
+        <v>0.8240000000000001</v>
+      </c>
+      <c r="V21">
+        <v>2.2</v>
+      </c>
+      <c r="W21">
+        <v>7.3</v>
+      </c>
+      <c r="X21">
+        <v>9.5</v>
+      </c>
+      <c r="Y21">
+        <v>8.6</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>1.8</v>
+      </c>
+      <c r="AB21">
+        <v>4.7</v>
+      </c>
+      <c r="AC21">
+        <v>3.7</v>
+      </c>
+      <c r="AD21">
+        <v>39.3</v>
+      </c>
+      <c r="AF21">
+        <v>114</v>
+      </c>
+      <c r="AG21">
+        <v>113</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:34">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="I22">
+        <v>-2881</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>0.02500000000000002</v>
+      </c>
+      <c r="M22">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0.04399999999999998</v>
+      </c>
+      <c r="P22">
+        <v>1.4</v>
+      </c>
+      <c r="Q22">
+        <v>2</v>
+      </c>
+      <c r="R22">
+        <v>0.02000000000000002</v>
+      </c>
+      <c r="S22">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="T22">
+        <v>-0.1999999999999993</v>
+      </c>
+      <c r="U22">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="X22">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>-0.2999999999999998</v>
+      </c>
+      <c r="AA22">
+        <v>0.9</v>
+      </c>
+      <c r="AB22">
+        <v>1.3</v>
+      </c>
+      <c r="AC22">
+        <v>0.9000000000000004</v>
+      </c>
+      <c r="AD22">
+        <v>5.299999999999997</v>
+      </c>
+      <c r="AF22">
+        <v>5</v>
+      </c>
+      <c r="AG22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:34">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23">
+        <v>47</v>
+      </c>
+      <c r="H23">
+        <v>47</v>
+      </c>
+      <c r="I23">
+        <v>1745</v>
+      </c>
+      <c r="J23">
+        <v>12.8</v>
+      </c>
+      <c r="K23">
+        <v>31.6</v>
+      </c>
+      <c r="L23">
+        <v>0.406</v>
+      </c>
+      <c r="M23">
+        <v>2.3</v>
+      </c>
+      <c r="N23">
+        <v>7.3</v>
+      </c>
+      <c r="O23">
+        <v>0.312</v>
+      </c>
+      <c r="P23">
+        <v>10.5</v>
+      </c>
+      <c r="Q23">
+        <v>24.3</v>
+      </c>
+      <c r="R23">
+        <v>0.434</v>
+      </c>
+      <c r="S23">
+        <v>7.9</v>
+      </c>
+      <c r="T23">
+        <v>10.6</v>
+      </c>
+      <c r="U23">
+        <v>0.747</v>
+      </c>
+      <c r="V23">
+        <v>1.4</v>
+      </c>
+      <c r="W23">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="X23">
+        <v>9.6</v>
+      </c>
+      <c r="Y23">
+        <v>7</v>
+      </c>
+      <c r="Z23">
+        <v>1.8</v>
+      </c>
+      <c r="AA23">
+        <v>1.3</v>
+      </c>
+      <c r="AB23">
+        <v>3.7</v>
+      </c>
+      <c r="AC23">
+        <v>2.7</v>
+      </c>
+      <c r="AD23">
+        <v>35.8</v>
+      </c>
+      <c r="AF23">
+        <v>102</v>
+      </c>
+      <c r="AG23">
+        <v>102</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:34">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:34">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" t="s">
+        <v>79</v>
+      </c>
+      <c r="G25">
+        <v>71</v>
+      </c>
+      <c r="H25">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>2539</v>
+      </c>
+      <c r="J25">
+        <v>13.3</v>
+      </c>
+      <c r="K25">
+        <v>30.8</v>
+      </c>
+      <c r="L25">
+        <v>0.431</v>
+      </c>
+      <c r="M25">
+        <v>2.6</v>
+      </c>
+      <c r="N25">
+        <v>7.9</v>
+      </c>
+      <c r="O25">
+        <v>0.331</v>
+      </c>
+      <c r="P25">
+        <v>10.7</v>
+      </c>
+      <c r="Q25">
+        <v>22.9</v>
+      </c>
+      <c r="R25">
+        <v>0.466</v>
+      </c>
+      <c r="S25">
+        <v>7.2</v>
+      </c>
+      <c r="T25">
+        <v>10.2</v>
+      </c>
+      <c r="U25">
+        <v>0.7070000000000001</v>
+      </c>
+      <c r="V25">
+        <v>1.2</v>
+      </c>
+      <c r="W25">
+        <v>6.7</v>
+      </c>
+      <c r="X25">
+        <v>7.9</v>
+      </c>
+      <c r="Y25">
+        <v>9.5</v>
+      </c>
+      <c r="Z25">
+        <v>1.9</v>
+      </c>
+      <c r="AA25">
+        <v>0.8</v>
+      </c>
+      <c r="AB25">
+        <v>4.4</v>
+      </c>
+      <c r="AC25">
+        <v>2.8</v>
+      </c>
+      <c r="AD25">
+        <v>36.4</v>
+      </c>
+      <c r="AF25">
+        <v>106</v>
+      </c>
+      <c r="AG25">
+        <v>100</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:34">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+      <c r="F26" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26">
+        <v>7</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>280</v>
+      </c>
+      <c r="J26">
+        <v>12.3</v>
+      </c>
+      <c r="K26">
+        <v>31.3</v>
+      </c>
+      <c r="L26">
+        <v>0.394</v>
+      </c>
+      <c r="M26">
+        <v>1.8</v>
+      </c>
+      <c r="N26">
+        <v>7</v>
+      </c>
+      <c r="O26">
+        <v>0.25</v>
+      </c>
+      <c r="P26">
+        <v>10.6</v>
+      </c>
+      <c r="Q26">
+        <v>24.3</v>
+      </c>
+      <c r="R26">
+        <v>0.435</v>
+      </c>
+      <c r="S26">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T26">
+        <v>11.2</v>
+      </c>
+      <c r="U26">
+        <v>0.737</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26">
+        <v>7</v>
+      </c>
+      <c r="X26">
+        <v>8</v>
+      </c>
+      <c r="Y26">
+        <v>10</v>
+      </c>
+      <c r="Z26">
+        <v>1</v>
+      </c>
+      <c r="AA26">
+        <v>1.2</v>
+      </c>
+      <c r="AB26">
+        <v>4.1</v>
+      </c>
+      <c r="AC26">
+        <v>2.3</v>
+      </c>
+      <c r="AD26">
+        <v>34.6</v>
+      </c>
+      <c r="AF26">
+        <v>101</v>
+      </c>
+      <c r="AG26">
+        <v>104</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:34">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="I27">
+        <v>-2259</v>
+      </c>
+      <c r="J27">
+        <v>-1</v>
+      </c>
+      <c r="K27">
+        <v>0.5</v>
+      </c>
+      <c r="L27">
+        <v>-0.03700000000000003</v>
+      </c>
+      <c r="M27">
+        <v>-0.8</v>
+      </c>
+      <c r="N27">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="O27">
+        <v>-0.08100000000000002</v>
+      </c>
+      <c r="P27">
+        <v>-0.09999999999999964</v>
+      </c>
+      <c r="Q27">
+        <v>1.400000000000002</v>
+      </c>
+      <c r="R27">
+        <v>-0.03100000000000003</v>
+      </c>
+      <c r="S27">
+        <v>0.9999999999999991</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>0.02999999999999992</v>
+      </c>
+      <c r="V27">
+        <v>-0.2</v>
+      </c>
+      <c r="W27">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="X27">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="Y27">
+        <v>0.5</v>
+      </c>
+      <c r="Z27">
+        <v>-0.8999999999999999</v>
+      </c>
+      <c r="AA27">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AB27">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="AC27">
+        <v>-0.5</v>
+      </c>
+      <c r="AD27">
+        <v>-1.799999999999997</v>
+      </c>
+      <c r="AF27">
+        <v>-5</v>
+      </c>
+      <c r="AG27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:34">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G28">
+        <v>66</v>
+      </c>
+      <c r="H28">
+        <v>62</v>
+      </c>
+      <c r="I28">
+        <v>2440</v>
+      </c>
+      <c r="J28">
+        <v>11.9</v>
+      </c>
+      <c r="K28">
+        <v>28.5</v>
+      </c>
+      <c r="L28">
+        <v>0.419</v>
+      </c>
+      <c r="M28">
+        <v>1.9</v>
+      </c>
+      <c r="N28">
+        <v>6.4</v>
+      </c>
+      <c r="O28">
+        <v>0.292</v>
+      </c>
+      <c r="P28">
+        <v>10.1</v>
+      </c>
+      <c r="Q28">
+        <v>22</v>
+      </c>
+      <c r="R28">
+        <v>0.457</v>
+      </c>
+      <c r="S28">
+        <v>5.3</v>
+      </c>
+      <c r="T28">
+        <v>7.8</v>
+      </c>
+      <c r="U28">
+        <v>0.6840000000000001</v>
+      </c>
+      <c r="V28">
+        <v>0.9</v>
+      </c>
+      <c r="W28">
+        <v>6.5</v>
+      </c>
+      <c r="X28">
+        <v>7.4</v>
+      </c>
+      <c r="Y28">
+        <v>8.4</v>
+      </c>
+      <c r="Z28">
+        <v>1.5</v>
+      </c>
+      <c r="AA28">
+        <v>0.7</v>
+      </c>
+      <c r="AB28">
+        <v>3.5</v>
+      </c>
+      <c r="AC28">
+        <v>2</v>
+      </c>
+      <c r="AD28">
+        <v>31.1</v>
+      </c>
+      <c r="AF28">
+        <v>104</v>
+      </c>
+      <c r="AG28">
+        <v>103</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:34">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" t="s">
+        <v>79</v>
+      </c>
+      <c r="G29">
+        <v>6</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>247</v>
+      </c>
+      <c r="J29">
+        <v>14.2</v>
+      </c>
+      <c r="K29">
+        <v>33.5</v>
+      </c>
+      <c r="L29">
+        <v>0.425</v>
+      </c>
+      <c r="M29">
+        <v>1.1</v>
+      </c>
+      <c r="N29">
+        <v>5.5</v>
+      </c>
+      <c r="O29">
+        <v>0.208</v>
+      </c>
+      <c r="P29">
+        <v>13.1</v>
+      </c>
+      <c r="Q29">
+        <v>28</v>
+      </c>
+      <c r="R29">
+        <v>0.467</v>
+      </c>
+      <c r="S29">
+        <v>7.6</v>
+      </c>
+      <c r="T29">
+        <v>12.1</v>
+      </c>
+      <c r="U29">
+        <v>0.623</v>
+      </c>
+      <c r="V29">
+        <v>1.6</v>
+      </c>
+      <c r="W29">
+        <v>9.6</v>
+      </c>
+      <c r="X29">
+        <v>11.2</v>
+      </c>
+      <c r="Y29">
+        <v>9.4</v>
+      </c>
+      <c r="Z29">
+        <v>2.1</v>
+      </c>
+      <c r="AA29">
+        <v>1.1</v>
+      </c>
+      <c r="AB29">
+        <v>4.1</v>
+      </c>
+      <c r="AC29">
+        <v>1.8</v>
+      </c>
+      <c r="AD29">
+        <v>37.1</v>
+      </c>
+      <c r="AF29">
+        <v>103</v>
+      </c>
+      <c r="AG29">
+        <v>104</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:34">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="I30">
+        <v>-2193</v>
+      </c>
+      <c r="J30">
+        <v>2.299999999999999</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="M30">
+        <v>-0.7999999999999998</v>
+      </c>
+      <c r="N30">
+        <v>-0.9000000000000004</v>
+      </c>
+      <c r="O30">
+        <v>-0.08399999999999996</v>
+      </c>
+      <c r="P30">
+        <v>3</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="S30">
+        <v>2.3</v>
+      </c>
+      <c r="T30">
+        <v>4.3</v>
+      </c>
+      <c r="U30">
+        <v>-0.06100000000000005</v>
+      </c>
+      <c r="V30">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="W30">
+        <v>3.1</v>
+      </c>
+      <c r="X30">
+        <v>3.799999999999999</v>
+      </c>
+      <c r="Y30">
+        <v>1</v>
+      </c>
+      <c r="Z30">
+        <v>0.6000000000000001</v>
+      </c>
+      <c r="AA30">
+        <v>0.4000000000000001</v>
+      </c>
+      <c r="AB30">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="AC30">
+        <v>-0.2</v>
+      </c>
+      <c r="AD30">
+        <v>6</v>
+      </c>
+      <c r="AF30">
+        <v>-1</v>
+      </c>
+      <c r="AG30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:34">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>70</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" t="s">
+        <v>79</v>
+      </c>
+      <c r="G31">
+        <v>35</v>
+      </c>
+      <c r="H31">
+        <v>35</v>
+      </c>
+      <c r="I31">
+        <v>1181</v>
+      </c>
+      <c r="J31">
+        <v>8.5</v>
+      </c>
+      <c r="K31">
+        <v>21.9</v>
+      </c>
+      <c r="L31">
+        <v>0.388</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>5.3</v>
+      </c>
+      <c r="O31">
+        <v>0.376</v>
+      </c>
+      <c r="P31">
+        <v>6.5</v>
+      </c>
+      <c r="Q31">
+        <v>16.6</v>
+      </c>
+      <c r="R31">
+        <v>0.391</v>
+      </c>
+      <c r="S31">
+        <v>5.6</v>
+      </c>
+      <c r="T31">
+        <v>7</v>
+      </c>
+      <c r="U31">
+        <v>0.8009999999999999</v>
+      </c>
+      <c r="V31">
+        <v>0.9</v>
+      </c>
+      <c r="W31">
+        <v>6</v>
+      </c>
+      <c r="X31">
+        <v>6.9</v>
+      </c>
+      <c r="Y31">
+        <v>7.9</v>
+      </c>
+      <c r="Z31">
+        <v>1.9</v>
+      </c>
+      <c r="AA31">
+        <v>0.7</v>
+      </c>
+      <c r="AB31">
+        <v>3.1</v>
+      </c>
+      <c r="AC31">
+        <v>1.7</v>
+      </c>
+      <c r="AD31">
+        <v>24.6</v>
+      </c>
+      <c r="AF31">
+        <v>105</v>
+      </c>
+      <c r="AG31">
+        <v>104</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:34">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:34">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F33" t="s">
+        <v>79</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33">
+        <v>24</v>
+      </c>
+      <c r="I33">
+        <v>673</v>
+      </c>
+      <c r="J33">
+        <v>6.9</v>
+      </c>
+      <c r="K33">
+        <v>17.8</v>
+      </c>
+      <c r="L33">
+        <v>0.387</v>
+      </c>
+      <c r="M33">
+        <v>1.2</v>
+      </c>
+      <c r="N33">
+        <v>4.9</v>
+      </c>
+      <c r="O33">
+        <v>0.25</v>
+      </c>
+      <c r="P33">
+        <v>5.7</v>
+      </c>
+      <c r="Q33">
+        <v>13</v>
+      </c>
+      <c r="R33">
+        <v>0.439</v>
+      </c>
+      <c r="S33">
+        <v>3.6</v>
+      </c>
+      <c r="T33">
+        <v>4.8</v>
+      </c>
+      <c r="U33">
+        <v>0.746</v>
+      </c>
+      <c r="V33">
+        <v>1.7</v>
+      </c>
+      <c r="W33">
+        <v>5.5</v>
+      </c>
+      <c r="X33">
+        <v>7.1</v>
+      </c>
+      <c r="Y33">
+        <v>7.5</v>
+      </c>
+      <c r="Z33">
+        <v>1.1</v>
+      </c>
+      <c r="AA33">
+        <v>1.1</v>
+      </c>
+      <c r="AB33">
+        <v>3.3</v>
+      </c>
+      <c r="AC33">
+        <v>3</v>
+      </c>
+      <c r="AD33">
+        <v>18.6</v>
+      </c>
+      <c r="AF33">
+        <v>98</v>
+      </c>
+      <c r="AG33">
+        <v>112</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:34">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34" t="s">
+        <v>79</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>46</v>
+      </c>
+      <c r="J34">
+        <v>7.8</v>
+      </c>
+      <c r="K34">
+        <v>21.1</v>
+      </c>
+      <c r="L34">
+        <v>0.368</v>
+      </c>
+      <c r="M34">
+        <v>1.1</v>
+      </c>
+      <c r="N34">
+        <v>2.2</v>
+      </c>
+      <c r="O34">
+        <v>0.5</v>
+      </c>
+      <c r="P34">
+        <v>6.7</v>
+      </c>
+      <c r="Q34">
+        <v>18.9</v>
+      </c>
+      <c r="R34">
+        <v>0.353</v>
+      </c>
+      <c r="S34">
+        <v>4.4</v>
+      </c>
+      <c r="T34">
+        <v>6.7</v>
+      </c>
+      <c r="U34">
+        <v>0.667</v>
+      </c>
+      <c r="V34">
+        <v>0</v>
+      </c>
+      <c r="W34">
+        <v>5.5</v>
+      </c>
+      <c r="X34">
+        <v>5.5</v>
+      </c>
+      <c r="Y34">
+        <v>6.7</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>2.2</v>
+      </c>
+      <c r="AB34">
+        <v>1.1</v>
+      </c>
+      <c r="AC34">
+        <v>2.2</v>
+      </c>
+      <c r="AD34">
+        <v>21.1</v>
+      </c>
+      <c r="AF34">
+        <v>101</v>
+      </c>
+      <c r="AG34">
+        <v>110</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:34">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+      <c r="E35" t="s">
+        <v>77</v>
+      </c>
+      <c r="F35" t="s">
+        <v>79</v>
+      </c>
+      <c r="G35">
+        <v>24</v>
+      </c>
+      <c r="H35">
+        <v>24</v>
+      </c>
+      <c r="I35">
+        <v>627</v>
+      </c>
+      <c r="J35">
+        <v>6.8</v>
+      </c>
+      <c r="K35">
+        <v>17.6</v>
+      </c>
+      <c r="L35">
+        <v>0.389</v>
+      </c>
+      <c r="M35">
+        <v>1.2</v>
+      </c>
+      <c r="N35">
+        <v>5.1</v>
+      </c>
+      <c r="O35">
+        <v>0.242</v>
+      </c>
+      <c r="P35">
+        <v>5.6</v>
+      </c>
+      <c r="Q35">
+        <v>12.5</v>
+      </c>
+      <c r="R35">
+        <v>0.448</v>
+      </c>
+      <c r="S35">
+        <v>3.5</v>
+      </c>
+      <c r="T35">
+        <v>4.6</v>
+      </c>
+      <c r="U35">
+        <v>0.754</v>
+      </c>
+      <c r="V35">
+        <v>1.8</v>
+      </c>
+      <c r="W35">
+        <v>5.5</v>
+      </c>
+      <c r="X35">
+        <v>7.3</v>
+      </c>
+      <c r="Y35">
+        <v>7.6</v>
+      </c>
+      <c r="Z35">
+        <v>1.2</v>
+      </c>
+      <c r="AA35">
+        <v>1</v>
+      </c>
+      <c r="AB35">
+        <v>3.5</v>
+      </c>
+      <c r="AC35">
+        <v>3.1</v>
+      </c>
+      <c r="AD35">
+        <v>18.4</v>
+      </c>
+      <c r="AF35">
+        <v>98</v>
+      </c>
+      <c r="AG35">
+        <v>113</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:34">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:34">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" t="s">
+        <v>65</v>
+      </c>
+      <c r="D37" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" t="s">
+        <v>79</v>
+      </c>
+      <c r="G37">
+        <v>72</v>
+      </c>
+      <c r="H37">
+        <v>39</v>
+      </c>
+      <c r="I37">
+        <v>1686</v>
+      </c>
+      <c r="J37">
+        <v>7.2</v>
+      </c>
+      <c r="K37">
+        <v>16.4</v>
+      </c>
+      <c r="L37">
+        <v>0.442</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37">
+        <v>2.8</v>
+      </c>
+      <c r="O37">
+        <v>0.341</v>
+      </c>
+      <c r="P37">
+        <v>6.3</v>
+      </c>
+      <c r="Q37">
+        <v>13.6</v>
+      </c>
+      <c r="R37">
+        <v>0.462</v>
+      </c>
+      <c r="S37">
+        <v>2.9</v>
+      </c>
+      <c r="T37">
+        <v>4.1</v>
+      </c>
+      <c r="U37">
+        <v>0.698</v>
+      </c>
+      <c r="V37">
+        <v>1.6</v>
+      </c>
+      <c r="W37">
+        <v>6.5</v>
+      </c>
+      <c r="X37">
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <v>8</v>
+      </c>
+      <c r="Z37">
+        <v>2.1</v>
+      </c>
+      <c r="AA37">
+        <v>1.1</v>
+      </c>
+      <c r="AB37">
+        <v>3.3</v>
+      </c>
+      <c r="AC37">
+        <v>3.2</v>
+      </c>
+      <c r="AD37">
+        <v>18.3</v>
+      </c>
+      <c r="AF37">
+        <v>104</v>
+      </c>
+      <c r="AG37">
+        <v>110</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:34">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:34">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" t="s">
+        <v>74</v>
+      </c>
+      <c r="E39" t="s">
+        <v>77</v>
+      </c>
+      <c r="F39" t="s">
+        <v>78</v>
+      </c>
+      <c r="G39">
+        <v>52</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>837</v>
+      </c>
+      <c r="J39">
+        <v>6.4</v>
+      </c>
+      <c r="K39">
+        <v>14.7</v>
+      </c>
+      <c r="L39">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>2.1</v>
+      </c>
+      <c r="O39">
+        <v>0.455</v>
+      </c>
+      <c r="P39">
+        <v>5.5</v>
+      </c>
+      <c r="Q39">
+        <v>12.6</v>
+      </c>
+      <c r="R39">
+        <v>0.434</v>
+      </c>
+      <c r="S39">
+        <v>3.6</v>
+      </c>
+      <c r="T39">
+        <v>5.3</v>
+      </c>
+      <c r="U39">
+        <v>0.675</v>
+      </c>
+      <c r="V39">
+        <v>1.5</v>
+      </c>
+      <c r="W39">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X39">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+      <c r="Z39">
+        <v>1</v>
+      </c>
+      <c r="AA39">
+        <v>1</v>
+      </c>
+      <c r="AB39">
+        <v>3.4</v>
+      </c>
+      <c r="AC39">
+        <v>2.2</v>
+      </c>
+      <c r="AD39">
+        <v>17.4</v>
+      </c>
+      <c r="AF39">
+        <v>102</v>
+      </c>
+      <c r="AG39">
+        <v>102</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:34">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>45</v>
+      </c>
+      <c r="C40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D40" t="s">
+        <v>74</v>
+      </c>
+      <c r="E40" t="s">
+        <v>77</v>
+      </c>
+      <c r="F40" t="s">
+        <v>78</v>
+      </c>
+      <c r="G40">
+        <v>6</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>90</v>
+      </c>
+      <c r="J40">
+        <v>6.1</v>
+      </c>
+      <c r="K40">
+        <v>15.8</v>
+      </c>
+      <c r="L40">
+        <v>0.385</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>2.4</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>6.1</v>
+      </c>
+      <c r="Q40">
+        <v>13.3</v>
+      </c>
+      <c r="R40">
+        <v>0.455</v>
+      </c>
+      <c r="S40">
+        <v>3</v>
+      </c>
+      <c r="T40">
+        <v>3.6</v>
+      </c>
+      <c r="U40">
+        <v>0.833</v>
+      </c>
+      <c r="V40">
+        <v>3.6</v>
+      </c>
+      <c r="W40">
+        <v>6.7</v>
+      </c>
+      <c r="X40">
+        <v>10.3</v>
+      </c>
+      <c r="Y40">
+        <v>3.6</v>
+      </c>
+      <c r="Z40">
+        <v>0</v>
+      </c>
+      <c r="AA40">
+        <v>1.2</v>
+      </c>
+      <c r="AB40">
+        <v>6.1</v>
+      </c>
+      <c r="AC40">
+        <v>2.4</v>
+      </c>
+      <c r="AD40">
+        <v>15.2</v>
+      </c>
+      <c r="AF40">
+        <v>77</v>
+      </c>
+      <c r="AG40">
+        <v>100</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="41" spans="1:34">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="I41">
+        <v>-747</v>
+      </c>
+      <c r="J41">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="K41">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="L41">
+        <v>-0.05200000000000005</v>
+      </c>
+      <c r="M41">
+        <v>-1</v>
+      </c>
+      <c r="N41">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="O41">
+        <v>-0.455</v>
+      </c>
+      <c r="P41">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="Q41">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="R41">
+        <v>0.02100000000000002</v>
+      </c>
+      <c r="S41">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="T41">
+        <v>-1.7</v>
+      </c>
+      <c r="U41">
+        <v>0.1579999999999999</v>
+      </c>
+      <c r="V41">
+        <v>2.1</v>
+      </c>
+      <c r="W41">
+        <v>-1.600000000000001</v>
+      </c>
+      <c r="X41">
+        <v>0.5</v>
+      </c>
+      <c r="Y41">
+        <v>-3.4</v>
+      </c>
+      <c r="Z41">
+        <v>-1</v>
+      </c>
+      <c r="AA41">
+        <v>0.2</v>
+      </c>
+      <c r="AB41">
+        <v>2.7</v>
+      </c>
+      <c r="AC41">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="AD41">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="AF41">
+        <v>-25</v>
+      </c>
+      <c r="AG41">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:34">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>77</v>
+      </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42">
+        <v>6</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>31</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>12.1</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>5.2</v>
+      </c>
+      <c r="O42">
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <v>0</v>
+      </c>
+      <c r="Q42">
+        <v>6.9</v>
+      </c>
+      <c r="R42">
+        <v>0</v>
+      </c>
+      <c r="S42">
+        <v>0</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>1.7</v>
+      </c>
+      <c r="W42">
+        <v>12.1</v>
+      </c>
+      <c r="X42">
+        <v>13.8</v>
+      </c>
+      <c r="Y42">
+        <v>12.1</v>
+      </c>
+      <c r="Z42">
+        <v>3.5</v>
+      </c>
+      <c r="AA42">
+        <v>5.2</v>
+      </c>
+      <c r="AB42">
+        <v>3.5</v>
+      </c>
+      <c r="AC42">
+        <v>1.7</v>
+      </c>
+      <c r="AD42">
+        <v>0</v>
+      </c>
+      <c r="AF42">
+        <v>47</v>
+      </c>
+      <c r="AG42">
+        <v>90</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:34">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:34">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="D44" t="s">
+        <v>74</v>
+      </c>
+      <c r="E44" t="s">
+        <v>77</v>
+      </c>
+      <c r="G44">
+        <v>52</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>837</v>
+      </c>
+      <c r="J44">
+        <v>6.4</v>
+      </c>
+      <c r="K44">
+        <v>14.7</v>
+      </c>
+      <c r="L44">
+        <v>0.4370000000000001</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2.1</v>
+      </c>
+      <c r="O44">
+        <v>0.455</v>
+      </c>
+      <c r="P44">
+        <v>5.5</v>
+      </c>
+      <c r="Q44">
+        <v>12.6</v>
+      </c>
+      <c r="R44">
+        <v>0.434</v>
+      </c>
+      <c r="S44">
+        <v>3.6</v>
+      </c>
+      <c r="T44">
+        <v>5.3</v>
+      </c>
+      <c r="U44">
+        <v>0.675</v>
+      </c>
+      <c r="V44">
+        <v>1.5</v>
+      </c>
+      <c r="W44">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="X44">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Y44">
+        <v>7</v>
+      </c>
+      <c r="Z44">
+        <v>1</v>
+      </c>
+      <c r="AA44">
+        <v>1</v>
+      </c>
+      <c r="AB44">
+        <v>3.4</v>
+      </c>
+      <c r="AC44">
+        <v>2.2</v>
+      </c>
+      <c r="AD44">
+        <v>17.4</v>
+      </c>
+      <c r="AF44">
+        <v>102</v>
+      </c>
+      <c r="AG44">
+        <v>102</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>74</v>
+      </c>
+      <c r="E45" t="s">
+        <v>77</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>90</v>
+      </c>
+      <c r="J45">
+        <v>6.1</v>
+      </c>
+      <c r="K45">
+        <v>15.8</v>
+      </c>
+      <c r="L45">
+        <v>0.385</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>2.4</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>6.1</v>
+      </c>
+      <c r="Q45">
+        <v>13.3</v>
+      </c>
+      <c r="R45">
+        <v>0.455</v>
+      </c>
+      <c r="S45">
+        <v>3</v>
+      </c>
+      <c r="T45">
+        <v>3.6</v>
+      </c>
+      <c r="U45">
+        <v>0.833</v>
+      </c>
+      <c r="V45">
+        <v>3.6</v>
+      </c>
+      <c r="W45">
+        <v>6.7</v>
+      </c>
+      <c r="X45">
+        <v>10.3</v>
+      </c>
+      <c r="Y45">
+        <v>3.6</v>
+      </c>
+      <c r="Z45">
+        <v>0</v>
+      </c>
+      <c r="AA45">
+        <v>1.2</v>
+      </c>
+      <c r="AB45">
+        <v>6.1</v>
+      </c>
+      <c r="AC45">
+        <v>2.4</v>
+      </c>
+      <c r="AD45">
+        <v>15.2</v>
+      </c>
+      <c r="AF45">
+        <v>77</v>
+      </c>
+      <c r="AG45">
+        <v>100</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:34">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="I46">
+        <v>-747</v>
+      </c>
+      <c r="J46">
+        <v>-0.3000000000000007</v>
+      </c>
+      <c r="K46">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="L46">
+        <v>-0.05200000000000005</v>
+      </c>
+      <c r="M46">
+        <v>-1</v>
+      </c>
+      <c r="N46">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="O46">
+        <v>-0.455</v>
+      </c>
+      <c r="P46">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="Q46">
+        <v>0.7000000000000011</v>
+      </c>
+      <c r="R46">
+        <v>0.02100000000000002</v>
+      </c>
+      <c r="S46">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="T46">
+        <v>-1.7</v>
+      </c>
+      <c r="U46">
+        <v>0.1579999999999999</v>
+      </c>
+      <c r="V46">
+        <v>2.1</v>
+      </c>
+      <c r="W46">
+        <v>-1.600000000000001</v>
+      </c>
+      <c r="X46">
+        <v>0.5</v>
+      </c>
+      <c r="Y46">
+        <v>-3.4</v>
+      </c>
+      <c r="Z46">
+        <v>-1</v>
+      </c>
+      <c r="AA46">
+        <v>0.2</v>
+      </c>
+      <c r="AB46">
+        <v>2.7</v>
+      </c>
+      <c r="AC46">
+        <v>0.1999999999999997</v>
+      </c>
+      <c r="AD46">
+        <v>-2.199999999999999</v>
+      </c>
+      <c r="AF46">
+        <v>-25</v>
+      </c>
+      <c r="AG46">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" t="s">
+        <v>73</v>
+      </c>
+      <c r="E47" t="s">
+        <v>77</v>
+      </c>
+      <c r="G47">
+        <v>72</v>
+      </c>
+      <c r="H47">
+        <v>39</v>
+      </c>
+      <c r="I47">
+        <v>1686</v>
+      </c>
+      <c r="J47">
+        <v>7.2</v>
+      </c>
+      <c r="K47">
+        <v>16.4</v>
+      </c>
+      <c r="L47">
+        <v>0.442</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>2.8</v>
+      </c>
+      <c r="O47">
+        <v>0.341</v>
+      </c>
+      <c r="P47">
+        <v>6.3</v>
+      </c>
+      <c r="Q47">
+        <v>13.6</v>
+      </c>
+      <c r="R47">
+        <v>0.462</v>
+      </c>
+      <c r="S47">
+        <v>2.9</v>
+      </c>
+      <c r="T47">
+        <v>4.1</v>
+      </c>
+      <c r="U47">
+        <v>0.698</v>
+      </c>
+      <c r="V47">
+        <v>1.6</v>
+      </c>
+      <c r="W47">
+        <v>6.5</v>
+      </c>
+      <c r="X47">
+        <v>8</v>
+      </c>
+      <c r="Y47">
+        <v>8</v>
+      </c>
+      <c r="Z47">
+        <v>2.1</v>
+      </c>
+      <c r="AA47">
+        <v>1.1</v>
+      </c>
+      <c r="AB47">
+        <v>3.3</v>
+      </c>
+      <c r="AC47">
+        <v>3.2</v>
+      </c>
+      <c r="AD47">
+        <v>18.3</v>
+      </c>
+      <c r="AF47">
+        <v>104</v>
+      </c>
+      <c r="AG47">
+        <v>110</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:34">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>70</v>
+      </c>
+      <c r="E49" t="s">
+        <v>77</v>
+      </c>
+      <c r="G49">
+        <v>303</v>
+      </c>
+      <c r="H49">
+        <v>293</v>
+      </c>
+      <c r="I49">
+        <v>11133</v>
+      </c>
+      <c r="J49">
+        <v>12.1</v>
+      </c>
+      <c r="K49">
+        <v>28.7</v>
+      </c>
+      <c r="L49">
+        <v>0.42</v>
+      </c>
+      <c r="M49">
+        <v>2.3</v>
+      </c>
+      <c r="N49">
+        <v>7</v>
+      </c>
+      <c r="O49">
+        <v>0.322</v>
+      </c>
+      <c r="P49">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Q49">
+        <v>21.6</v>
+      </c>
+      <c r="R49">
+        <v>0.452</v>
+      </c>
+      <c r="S49">
+        <v>6.8</v>
+      </c>
+      <c r="T49">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U49">
+        <v>0.737</v>
+      </c>
+      <c r="V49">
+        <v>1.1</v>
+      </c>
+      <c r="W49">
+        <v>6.9</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="Z49">
+        <v>1.9</v>
+      </c>
+      <c r="AA49">
+        <v>0.8</v>
+      </c>
+      <c r="AB49">
+        <v>3.7</v>
+      </c>
+      <c r="AC49">
+        <v>2.5</v>
+      </c>
+      <c r="AD49">
+        <v>33.1</v>
+      </c>
+      <c r="AF49">
+        <v>105</v>
+      </c>
+      <c r="AG49">
+        <v>102</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" t="s">
+        <v>77</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>20</v>
+      </c>
+      <c r="I50">
+        <v>828</v>
+      </c>
+      <c r="J50">
+        <v>13.6</v>
+      </c>
+      <c r="K50">
+        <v>31.9</v>
+      </c>
+      <c r="L50">
+        <v>0.426</v>
+      </c>
+      <c r="M50">
+        <v>2.1</v>
+      </c>
+      <c r="N50">
+        <v>7.1</v>
+      </c>
+      <c r="O50">
+        <v>0.292</v>
+      </c>
+      <c r="P50">
+        <v>11.5</v>
+      </c>
+      <c r="Q50">
+        <v>24.8</v>
+      </c>
+      <c r="R50">
+        <v>0.464</v>
+      </c>
+      <c r="S50">
+        <v>7.8</v>
+      </c>
+      <c r="T50">
+        <v>10.8</v>
+      </c>
+      <c r="U50">
+        <v>0.727</v>
+      </c>
+      <c r="V50">
+        <v>1.6</v>
+      </c>
+      <c r="W50">
+        <v>7.9</v>
+      </c>
+      <c r="X50">
+        <v>9.5</v>
+      </c>
+      <c r="Y50">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="Z50">
+        <v>1.7</v>
+      </c>
+      <c r="AA50">
+        <v>1.4</v>
+      </c>
+      <c r="AB50">
+        <v>4.3</v>
+      </c>
+      <c r="AC50">
+        <v>2.7</v>
+      </c>
+      <c r="AD50">
+        <v>37.1</v>
+      </c>
+      <c r="AF50">
+        <v>106</v>
+      </c>
+      <c r="AG50">
+        <v>107</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="I51">
+        <v>-10305</v>
+      </c>
+      <c r="J51">
+        <v>1.5</v>
+      </c>
+      <c r="K51">
+        <v>3.199999999999999</v>
+      </c>
+      <c r="L51">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="M51">
+        <v>-0.1999999999999997</v>
+      </c>
+      <c r="N51">
+        <v>0.09999999999999964</v>
+      </c>
+      <c r="O51">
+        <v>-0.03000000000000003</v>
+      </c>
+      <c r="P51">
+        <v>1.699999999999999</v>
+      </c>
+      <c r="Q51">
+        <v>3.199999999999999</v>
+      </c>
+      <c r="R51">
+        <v>0.01199999999999996</v>
+      </c>
+      <c r="S51">
+        <v>1</v>
+      </c>
+      <c r="T51">
+        <v>1.600000000000001</v>
+      </c>
+      <c r="U51">
+        <v>-0.01000000000000001</v>
+      </c>
+      <c r="V51">
+        <v>0.5</v>
+      </c>
+      <c r="W51">
+        <v>1</v>
+      </c>
+      <c r="X51">
+        <v>1.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="Z51">
+        <v>-0.2</v>
+      </c>
+      <c r="AA51">
+        <v>0.5999999999999999</v>
+      </c>
+      <c r="AB51">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="AC51">
+        <v>0.2000000000000002</v>
+      </c>
+      <c r="AD51">
+        <v>4</v>
+      </c>
+      <c r="AF51">
+        <v>1</v>
+      </c>
+      <c r="AG51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>77</v>
+      </c>
+      <c r="G52">
+        <v>24</v>
+      </c>
+      <c r="H52">
+        <v>24</v>
+      </c>
+      <c r="I52">
+        <v>627</v>
+      </c>
+      <c r="J52">
+        <v>6.8</v>
+      </c>
+      <c r="K52">
+        <v>17.6</v>
+      </c>
+      <c r="L52">
+        <v>0.389</v>
+      </c>
+      <c r="M52">
+        <v>1.2</v>
+      </c>
+      <c r="N52">
+        <v>5.1</v>
+      </c>
+      <c r="O52">
+        <v>0.242</v>
+      </c>
+      <c r="P52">
+        <v>5.6</v>
+      </c>
+      <c r="Q52">
+        <v>12.5</v>
+      </c>
+      <c r="R52">
+        <v>0.448</v>
+      </c>
+      <c r="S52">
+        <v>3.5</v>
+      </c>
+      <c r="T52">
+        <v>4.6</v>
+      </c>
+      <c r="U52">
+        <v>0.754</v>
+      </c>
+      <c r="V52">
+        <v>1.8</v>
+      </c>
+      <c r="W52">
+        <v>5.5</v>
+      </c>
+      <c r="X52">
+        <v>7.3</v>
+      </c>
+      <c r="Y52">
+        <v>7.6</v>
+      </c>
+      <c r="Z52">
+        <v>1.2</v>
+      </c>
+      <c r="AA52">
+        <v>1</v>
+      </c>
+      <c r="AB52">
+        <v>3.5</v>
+      </c>
+      <c r="AC52">
+        <v>3.1</v>
+      </c>
+      <c r="AD52">
+        <v>18.4</v>
+      </c>
+      <c r="AF52">
+        <v>98</v>
+      </c>
+      <c r="AG52">
+        <v>113</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>77</v>
+      </c>
+      <c r="G54">
+        <v>295</v>
+      </c>
+      <c r="H54">
+        <v>294</v>
+      </c>
+      <c r="I54">
+        <v>11628</v>
+      </c>
+      <c r="J54">
+        <v>13.3</v>
+      </c>
+      <c r="K54">
+        <v>29.8</v>
+      </c>
+      <c r="L54">
+        <v>0.446</v>
+      </c>
+      <c r="M54">
+        <v>2.3</v>
+      </c>
+      <c r="N54">
+        <v>6.3</v>
+      </c>
+      <c r="O54">
+        <v>0.361</v>
+      </c>
+      <c r="P54">
+        <v>11</v>
+      </c>
+      <c r="Q54">
+        <v>23.5</v>
+      </c>
+      <c r="R54">
+        <v>0.469</v>
+      </c>
+      <c r="S54">
+        <v>8.1</v>
+      </c>
+      <c r="T54">
+        <v>10.6</v>
+      </c>
+      <c r="U54">
+        <v>0.768</v>
+      </c>
+      <c r="V54">
+        <v>2.5</v>
+      </c>
+      <c r="W54">
+        <v>6.7</v>
+      </c>
+      <c r="X54">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Y54">
+        <v>6.8</v>
+      </c>
+      <c r="Z54">
+        <v>2</v>
+      </c>
+      <c r="AA54">
+        <v>1.3</v>
+      </c>
+      <c r="AB54">
+        <v>3.4</v>
+      </c>
+      <c r="AC54">
+        <v>2.6</v>
+      </c>
+      <c r="AD54">
+        <v>37</v>
+      </c>
+      <c r="AF54">
+        <v>112</v>
+      </c>
+      <c r="AG54">
+        <v>104</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" t="s">
+        <v>77</v>
+      </c>
+      <c r="G55">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>15</v>
+      </c>
+      <c r="I55">
+        <v>664</v>
+      </c>
+      <c r="J55">
+        <v>13.5</v>
+      </c>
+      <c r="K55">
+        <v>30.7</v>
+      </c>
+      <c r="L55">
+        <v>0.441</v>
+      </c>
+      <c r="M55">
+        <v>1.9</v>
+      </c>
+      <c r="N55">
+        <v>5.9</v>
+      </c>
+      <c r="O55">
+        <v>0.315</v>
+      </c>
+      <c r="P55">
+        <v>11.7</v>
+      </c>
+      <c r="Q55">
+        <v>24.8</v>
+      </c>
+      <c r="R55">
+        <v>0.471</v>
+      </c>
+      <c r="S55">
+        <v>10</v>
+      </c>
+      <c r="T55">
+        <v>12.9</v>
+      </c>
+      <c r="U55">
+        <v>0.774</v>
+      </c>
+      <c r="V55">
+        <v>1.8</v>
+      </c>
+      <c r="W55">
+        <v>6.2</v>
+      </c>
+      <c r="X55">
+        <v>7.9</v>
+      </c>
+      <c r="Y55">
+        <v>7.1</v>
+      </c>
+      <c r="Z55">
+        <v>1.9</v>
+      </c>
+      <c r="AA55">
+        <v>1.5</v>
+      </c>
+      <c r="AB55">
+        <v>3.8</v>
+      </c>
+      <c r="AC55">
+        <v>3.1</v>
+      </c>
+      <c r="AD55">
+        <v>38.8</v>
+      </c>
+      <c r="AF55">
+        <v>109</v>
+      </c>
+      <c r="AG55">
+        <v>108</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="I56">
+        <v>-10964</v>
+      </c>
+      <c r="J56">
+        <v>0.1999999999999993</v>
+      </c>
+      <c r="K56">
+        <v>0.8999999999999986</v>
+      </c>
+      <c r="L56">
+        <v>-0.005000000000000004</v>
+      </c>
+      <c r="M56">
+        <v>-0.3999999999999999</v>
+      </c>
+      <c r="N56">
+        <v>-0.3999999999999995</v>
+      </c>
+      <c r="O56">
+        <v>-0.04599999999999999</v>
+      </c>
+      <c r="P56">
+        <v>0.6999999999999993</v>
+      </c>
+      <c r="Q56">
+        <v>1.300000000000001</v>
+      </c>
+      <c r="R56">
+        <v>0.002000000000000057</v>
+      </c>
+      <c r="S56">
+        <v>1.9</v>
+      </c>
+      <c r="T56">
+        <v>2.300000000000001</v>
+      </c>
+      <c r="U56">
+        <v>0.006000000000000005</v>
+      </c>
+      <c r="V56">
+        <v>-0.7</v>
+      </c>
+      <c r="W56">
+        <v>-0.5</v>
+      </c>
+      <c r="X56">
+        <v>-1.299999999999999</v>
+      </c>
+      <c r="Y56">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="Z56">
+        <v>-0.1000000000000001</v>
+      </c>
+      <c r="AA56">
+        <v>0.2</v>
+      </c>
+      <c r="AB56">
+        <v>0.3999999999999999</v>
+      </c>
+      <c r="AC56">
+        <v>0.5</v>
+      </c>
+      <c r="AD56">
+        <v>1.799999999999997</v>
+      </c>
+      <c r="AF56">
+        <v>-3</v>
+      </c>
+      <c r="AG56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>47</v>
+      </c>
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>31</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>12.1</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>5.2</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0</v>
+      </c>
+      <c r="Q57">
+        <v>6.9</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="V57">
+        <v>1.7</v>
+      </c>
+      <c r="W57">
+        <v>12.1</v>
+      </c>
+      <c r="X57">
+        <v>13.8</v>
+      </c>
+      <c r="Y57">
+        <v>12.1</v>
+      </c>
+      <c r="Z57">
+        <v>3.5</v>
+      </c>
+      <c r="AA57">
+        <v>5.2</v>
+      </c>
+      <c r="AB57">
+        <v>3.5</v>
+      </c>
+      <c r="AC57">
+        <v>1.7</v>
+      </c>
+      <c r="AD57">
+        <v>0</v>
+      </c>
+      <c r="AF57">
+        <v>47</v>
+      </c>
+      <c r="AG57">
+        <v>90</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="D59" t="s">
+        <v>68</v>
+      </c>
+      <c r="E59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G59">
+        <v>192</v>
+      </c>
+      <c r="H59">
+        <v>53</v>
+      </c>
+      <c r="I59">
+        <v>4747</v>
+      </c>
+      <c r="J59">
+        <v>8.9</v>
+      </c>
+      <c r="K59">
+        <v>19.9</v>
+      </c>
+      <c r="L59">
+        <v>0.448</v>
+      </c>
+      <c r="M59">
+        <v>0.4</v>
+      </c>
+      <c r="N59">
+        <v>1.6</v>
+      </c>
+      <c r="O59">
+        <v>0.284</v>
+      </c>
+      <c r="P59">
+        <v>8.5</v>
+      </c>
+      <c r="Q59">
+        <v>18.3</v>
+      </c>
+      <c r="R59">
+        <v>0.461</v>
+      </c>
+      <c r="S59">
+        <v>5.2</v>
+      </c>
+      <c r="T59">
+        <v>7.3</v>
+      </c>
+      <c r="U59">
+        <v>0.7120000000000001</v>
+      </c>
+      <c r="V59">
+        <v>4.6</v>
+      </c>
+      <c r="W59">
+        <v>7</v>
+      </c>
+      <c r="X59">
+        <v>11.6</v>
+      </c>
+      <c r="Y59">
+        <v>5.2</v>
+      </c>
+      <c r="Z59">
+        <v>2.1</v>
+      </c>
+      <c r="AA59">
+        <v>3.1</v>
+      </c>
+      <c r="AB59">
+        <v>3.4</v>
+      </c>
+      <c r="AC59">
+        <v>4.2</v>
+      </c>
+      <c r="AD59">
+        <v>23.4</v>
+      </c>
+      <c r="AF59">
+        <v>106</v>
+      </c>
+      <c r="AG59">
+        <v>104</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>47</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>3</v>
+      </c>
+      <c r="I60">
+        <v>111</v>
+      </c>
+      <c r="J60">
+        <v>8.5</v>
+      </c>
+      <c r="K60">
+        <v>22.1</v>
+      </c>
+      <c r="L60">
+        <v>0.386</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>3.5</v>
+      </c>
+      <c r="O60">
+        <v>0.286</v>
+      </c>
+      <c r="P60">
+        <v>7.5</v>
+      </c>
+      <c r="Q60">
+        <v>18.6</v>
+      </c>
+      <c r="R60">
+        <v>0.405</v>
+      </c>
+      <c r="S60">
+        <v>7</v>
+      </c>
+      <c r="T60">
+        <v>8</v>
+      </c>
+      <c r="U60">
+        <v>0.875</v>
+      </c>
+      <c r="V60">
+        <v>5</v>
+      </c>
+      <c r="W60">
+        <v>5.5</v>
+      </c>
+      <c r="X60">
+        <v>10.6</v>
+      </c>
+      <c r="Y60">
+        <v>4.5</v>
+      </c>
+      <c r="Z60">
+        <v>1.5</v>
+      </c>
+      <c r="AA60">
+        <v>1.5</v>
+      </c>
+      <c r="AB60">
+        <v>5</v>
+      </c>
+      <c r="AC60">
+        <v>5</v>
+      </c>
+      <c r="AD60">
+        <v>25.1</v>
+      </c>
+      <c r="AF60">
+        <v>97</v>
+      </c>
+      <c r="AG60">
+        <v>103</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="I61">
+        <v>-4636</v>
+      </c>
+      <c r="J61">
+        <v>-0.4000000000000004</v>
+      </c>
+      <c r="K61">
+        <v>2.200000000000003</v>
+      </c>
+      <c r="L61">
+        <v>-0.06199999999999994</v>
+      </c>
+      <c r="M61">
+        <v>0.6</v>
+      </c>
+      <c r="N61">
+        <v>1.9</v>
+      </c>
+      <c r="O61">
+        <v>0.002000000000000057</v>
+      </c>
+      <c r="P61">
+        <v>-1</v>
+      </c>
+      <c r="Q61">
+        <v>0.3000000000000007</v>
+      </c>
+      <c r="R61">
+        <v>-0.05599999999999999</v>
+      </c>
+      <c r="S61">
+        <v>1.8</v>
+      </c>
+      <c r="T61">
+        <v>0.7000000000000002</v>
+      </c>
+      <c r="U61">
+        <v>0.1629999999999999</v>
+      </c>
+      <c r="V61">
+        <v>0.4000000000000004</v>
+      </c>
+      <c r="W61">
+        <v>-1.5</v>
+      </c>
+      <c r="X61">
+        <v>-1</v>
+      </c>
+      <c r="Y61">
+        <v>-0.7000000000000002</v>
+      </c>
+      <c r="Z61">
+        <v>-0.6000000000000001</v>
+      </c>
+      <c r="AA61">
+        <v>-1.6</v>
+      </c>
+      <c r="AB61">
+        <v>1.6</v>
+      </c>
+      <c r="AC61">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="AD61">
+        <v>1.700000000000003</v>
+      </c>
+      <c r="AF61">
+        <v>-9</v>
+      </c>
+      <c r="AG61">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G62">
+        <v>938</v>
+      </c>
+      <c r="H62">
+        <v>703</v>
+      </c>
+      <c r="I62">
+        <v>30658</v>
+      </c>
+      <c r="J62">
+        <v>11.5</v>
+      </c>
+      <c r="K62">
+        <v>26.5</v>
+      </c>
+      <c r="L62">
+        <v>0.435</v>
+      </c>
+      <c r="M62">
+        <v>1.9</v>
+      </c>
+      <c r="N62">
+        <v>5.5</v>
+      </c>
+      <c r="O62">
+        <v>0.338</v>
+      </c>
+      <c r="P62">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="Q62">
+        <v>21</v>
+      </c>
+      <c r="R62">
+        <v>0.461</v>
+      </c>
+      <c r="S62">
+        <v>6.7</v>
+      </c>
+      <c r="T62">
+        <v>8.9</v>
+      </c>
+      <c r="U62">
+        <v>0.746</v>
+      </c>
+      <c r="V62">
+        <v>2.2</v>
+      </c>
+      <c r="W62">
+        <v>6.8</v>
+      </c>
+      <c r="X62">
+        <v>9.1</v>
+      </c>
+      <c r="Y62">
+        <v>7.1</v>
+      </c>
+      <c r="Z62">
+        <v>2</v>
+      </c>
+      <c r="AA62">
+        <v>1.4</v>
+      </c>
+      <c r="AB62">
+        <v>3.5</v>
+      </c>
+      <c r="AC62">
+        <v>2.9</v>
+      </c>
+      <c r="AD62">
+        <v>31.6</v>
+      </c>
+      <c r="AF62">
+        <v>108</v>
+      </c>
+      <c r="AG62">
+        <v>104</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>51</v>
+      </c>
+      <c r="E63" t="s">
+        <v>77</v>
+      </c>
+      <c r="G63">
+        <v>50</v>
+      </c>
+      <c r="H63">
+        <v>38</v>
+      </c>
+      <c r="I63">
+        <v>1724</v>
+      </c>
+      <c r="J63">
+        <v>12.6</v>
+      </c>
+      <c r="K63">
+        <v>29.6</v>
+      </c>
+      <c r="L63">
+        <v>0.426</v>
+      </c>
+      <c r="M63">
+        <v>1.8</v>
+      </c>
+      <c r="N63">
+        <v>6.1</v>
+      </c>
+      <c r="O63">
+        <v>0.29</v>
+      </c>
+      <c r="P63">
+        <v>10.8</v>
+      </c>
+      <c r="Q63">
+        <v>23.5</v>
+      </c>
+      <c r="R63">
+        <v>0.461</v>
+      </c>
+      <c r="S63">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T63">
+        <v>10.8</v>
+      </c>
+      <c r="U63">
+        <v>0.757</v>
+      </c>
+      <c r="V63">
+        <v>2</v>
+      </c>
+      <c r="W63">
+        <v>7.1</v>
+      </c>
+      <c r="X63">
+        <v>9.1</v>
+      </c>
+      <c r="Y63">
+        <v>7.9</v>
+      </c>
+      <c r="Z63">
+        <v>1.7</v>
+      </c>
+      <c r="AA63">
+        <v>1.5</v>
+      </c>
+      <c r="AB63">
+        <v>4.3</v>
+      </c>
+      <c r="AC63">
+        <v>3</v>
+      </c>
+      <c r="AD63">
+        <v>35.2</v>
+      </c>
+      <c r="AF63">
+        <v>106</v>
+      </c>
+      <c r="AG63">
+        <v>107</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="I64">
+        <v>-28934</v>
+      </c>
+      <c r="J64">
+        <v>1.1</v>
+      </c>
+      <c r="K64">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="L64">
+        <v>-0.009000000000000008</v>
+      </c>
+      <c r="M64">
+        <v>-0.09999999999999987</v>
+      </c>
+      <c r="N64">
+        <v>0.5999999999999996</v>
+      </c>
+      <c r="O64">
+        <v>-0.04799999999999999</v>
+      </c>
+      <c r="P64">
+        <v>1.100000000000001</v>
+      </c>
+      <c r="Q64">
+        <v>2.5</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>1.499999999999999</v>
+      </c>
+      <c r="T64">
+        <v>1.9</v>
+      </c>
+      <c r="U64">
+        <v>0.01100000000000001</v>
+      </c>
+      <c r="V64">
+        <v>-0.2000000000000002</v>
+      </c>
+      <c r="W64">
+        <v>0.2999999999999998</v>
+      </c>
+      <c r="X64">
+        <v>0</v>
+      </c>
+      <c r="Y64">
+        <v>0.8000000000000007</v>
+      </c>
+      <c r="Z64">
+        <v>-0.3</v>
+      </c>
+      <c r="AA64">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AB64">
+        <v>0.7999999999999998</v>
+      </c>
+      <c r="AC64">
+        <v>0.1000000000000001</v>
+      </c>
+      <c r="AD64">
+        <v>3.600000000000001</v>
+      </c>
+      <c r="AF64">
+        <v>-2</v>
+      </c>
+      <c r="AG64">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5610,70 +15307,70 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="AA1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>30</v>

--- a/output/mcgratr01.xlsx
+++ b/output/mcgratr01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Tm</t>
+    <t>Team</t>
   </si>
   <si>
     <t>Lg</t>
@@ -855,7 +855,7 @@
         <v>1.7</v>
       </c>
       <c r="V2">
-        <v>0.7120000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="W2">
         <v>1.6</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="V6">
-        <v>0.7070000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="W6">
         <v>2.4</v>
@@ -1196,9 +1196,6 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>5.800000000000001</v>
-      </c>
       <c r="J8">
         <v>-0.09999999999999964</v>
       </c>
@@ -1215,7 +1212,7 @@
         <v>1.5</v>
       </c>
       <c r="O8">
-        <v>0.009000000000000064</v>
+        <v>0.008999999999999952</v>
       </c>
       <c r="P8">
         <v>-0.5999999999999996</v>
@@ -1224,7 +1221,7 @@
         <v>0.2000000000000011</v>
       </c>
       <c r="R8">
-        <v>-0.05799999999999994</v>
+        <v>-0.058</v>
       </c>
       <c r="S8">
         <v>-0.05100000000000005</v>
@@ -1236,7 +1233,7 @@
         <v>0.2999999999999998</v>
       </c>
       <c r="V8">
-        <v>0.1679999999999999</v>
+        <v>0.168</v>
       </c>
       <c r="W8">
         <v>0.8999999999999999</v>
@@ -1466,9 +1463,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>4.399999999999999</v>
-      </c>
       <c r="J11">
         <v>2.600000000000001</v>
       </c>
@@ -1494,7 +1488,7 @@
         <v>8.100000000000001</v>
       </c>
       <c r="R11">
-        <v>-0.03399999999999997</v>
+        <v>-0.03400000000000003</v>
       </c>
       <c r="S11">
         <v>-0.05099999999999999</v>
@@ -1699,7 +1693,7 @@
         <v>11.5</v>
       </c>
       <c r="V13">
-        <v>0.7390000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="W13">
         <v>1.5</v>
@@ -1736,9 +1730,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>6.200000000000003</v>
-      </c>
       <c r="J14">
         <v>1.1</v>
       </c>
@@ -1776,7 +1767,7 @@
         <v>4.2</v>
       </c>
       <c r="V14">
-        <v>-0.008999999999999897</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="W14">
         <v>-0.5</v>
@@ -1871,7 +1862,7 @@
         <v>9.699999999999999</v>
       </c>
       <c r="V15">
-        <v>0.7929999999999999</v>
+        <v>0.793</v>
       </c>
       <c r="W15">
         <v>1.6</v>
@@ -1960,7 +1951,7 @@
         <v>0.492</v>
       </c>
       <c r="S16">
-        <v>0.4970000000000001</v>
+        <v>0.497</v>
       </c>
       <c r="T16">
         <v>8.300000000000001</v>
@@ -2006,9 +1997,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>4.600000000000001</v>
-      </c>
       <c r="J17">
         <v>-0.5</v>
       </c>
@@ -2016,7 +2004,7 @@
         <v>-0.5999999999999979</v>
       </c>
       <c r="L17">
-        <v>-0.009000000000000064</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -2037,7 +2025,7 @@
         <v>0.01100000000000001</v>
       </c>
       <c r="S17">
-        <v>-0.007999999999999952</v>
+        <v>-0.008000000000000007</v>
       </c>
       <c r="T17">
         <v>0.6000000000000005</v>
@@ -2046,7 +2034,7 @@
         <v>1</v>
       </c>
       <c r="V17">
-        <v>-0.01999999999999991</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="W17">
         <v>-0.2000000000000002</v>
@@ -2141,7 +2129,7 @@
         <v>7.5</v>
       </c>
       <c r="V18">
-        <v>0.7959999999999999</v>
+        <v>0.796</v>
       </c>
       <c r="W18">
         <v>1.4</v>
@@ -2342,7 +2330,7 @@
         <v>7.3</v>
       </c>
       <c r="V21">
-        <v>0.8240000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="W21">
         <v>1.7</v>
@@ -2379,9 +2367,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>2.200000000000003</v>
-      </c>
       <c r="J22">
         <v>1.9</v>
       </c>
@@ -2407,7 +2392,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="R22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="S22">
         <v>0.03300000000000003</v>
@@ -2419,7 +2404,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="V22">
-        <v>0.05000000000000004</v>
+        <v>0.04999999999999993</v>
       </c>
       <c r="W22">
         <v>0.7999999999999999</v>
@@ -2617,7 +2602,7 @@
         <v>6.9</v>
       </c>
       <c r="V25">
-        <v>0.7070000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="W25">
         <v>0.8</v>
@@ -2752,9 +2737,6 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="I27">
-        <v>4.200000000000003</v>
-      </c>
       <c r="J27">
         <v>0</v>
       </c>
@@ -2762,7 +2744,7 @@
         <v>2.099999999999998</v>
       </c>
       <c r="L27">
-        <v>-0.03700000000000003</v>
+        <v>-0.03699999999999998</v>
       </c>
       <c r="M27">
         <v>-0.5</v>
@@ -2783,7 +2765,7 @@
         <v>-0.03100000000000003</v>
       </c>
       <c r="S27">
-        <v>-0.05199999999999994</v>
+        <v>-0.05199999999999999</v>
       </c>
       <c r="T27">
         <v>1.1</v>
@@ -2792,7 +2774,7 @@
         <v>1.199999999999999</v>
       </c>
       <c r="V27">
-        <v>0.02999999999999992</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="W27">
         <v>-0.1000000000000001</v>
@@ -3022,9 +3004,6 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="I30">
-        <v>4.200000000000003</v>
-      </c>
       <c r="J30">
         <v>2</v>
       </c>
@@ -3041,7 +3020,7 @@
         <v>-0.5</v>
       </c>
       <c r="O30">
-        <v>-0.08399999999999996</v>
+        <v>-0.08399999999999999</v>
       </c>
       <c r="P30">
         <v>2.5</v>
@@ -3157,7 +3136,7 @@
         <v>4.5</v>
       </c>
       <c r="V31">
-        <v>0.8009999999999999</v>
+        <v>0.801</v>
       </c>
       <c r="W31">
         <v>0.6</v>
@@ -3632,7 +3611,7 @@
         <v>4.4</v>
       </c>
       <c r="L39">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="M39">
         <v>0.3</v>
@@ -3797,9 +3776,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I41">
-        <v>-1.100000000000001</v>
-      </c>
       <c r="J41">
         <v>-0.2</v>
       </c>
@@ -3807,7 +3783,7 @@
         <v>-0.1000000000000005</v>
       </c>
       <c r="L41">
-        <v>-0.05200000000000005</v>
+        <v>-0.05199999999999999</v>
       </c>
       <c r="M41">
         <v>-0.3</v>
@@ -4013,7 +3989,7 @@
         <v>4.4</v>
       </c>
       <c r="L45">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="M45">
         <v>0.3</v>
@@ -4172,9 +4148,6 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="I47">
-        <v>-1.100000000000001</v>
-      </c>
       <c r="J47">
         <v>-0.2</v>
       </c>
@@ -4182,7 +4155,7 @@
         <v>-0.1000000000000005</v>
       </c>
       <c r="L47">
-        <v>-0.05200000000000005</v>
+        <v>-0.05199999999999999</v>
       </c>
       <c r="M47">
         <v>-0.3</v>
@@ -4527,9 +4500,6 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="I52">
-        <v>4.699999999999996</v>
-      </c>
       <c r="J52">
         <v>1.899999999999999</v>
       </c>
@@ -4555,10 +4525,10 @@
         <v>3.800000000000001</v>
       </c>
       <c r="R52">
-        <v>0.01199999999999996</v>
+        <v>0.01200000000000001</v>
       </c>
       <c r="S52">
-        <v>-0.002000000000000057</v>
+        <v>-0.002000000000000002</v>
       </c>
       <c r="T52">
         <v>1.300000000000001</v>
@@ -4882,9 +4852,6 @@
       <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="I57">
-        <v>4.899999999999999</v>
-      </c>
       <c r="J57">
         <v>1</v>
       </c>
@@ -4910,10 +4877,10 @@
         <v>2.5</v>
       </c>
       <c r="R57">
-        <v>0.002000000000000057</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="S57">
-        <v>-0.01299999999999996</v>
+        <v>-0.01300000000000001</v>
       </c>
       <c r="T57">
         <v>1.999999999999999</v>
@@ -5105,7 +5072,7 @@
         <v>3.4</v>
       </c>
       <c r="V60">
-        <v>0.7120000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="W60">
         <v>2.2</v>
@@ -5234,9 +5201,6 @@
       <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="I62">
-        <v>12.3</v>
-      </c>
       <c r="J62">
         <v>1.5</v>
       </c>
@@ -5244,7 +5208,7 @@
         <v>5.299999999999999</v>
       </c>
       <c r="L62">
-        <v>-0.06199999999999994</v>
+        <v>-0.062</v>
       </c>
       <c r="M62">
         <v>0.4999999999999999</v>
@@ -5253,7 +5217,7 @@
         <v>1.6</v>
       </c>
       <c r="O62">
-        <v>0.002000000000000057</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="P62">
         <v>1</v>
@@ -5265,7 +5229,7 @@
         <v>-0.05599999999999999</v>
       </c>
       <c r="S62">
-        <v>-0.04999999999999999</v>
+        <v>-0.05000000000000004</v>
       </c>
       <c r="T62">
         <v>2.3</v>
@@ -5274,7 +5238,7 @@
         <v>1.9</v>
       </c>
       <c r="V62">
-        <v>0.1629999999999999</v>
+        <v>0.163</v>
       </c>
       <c r="W62">
         <v>1.1</v>
@@ -5486,9 +5450,6 @@
       <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="I65">
-        <v>1.799999999999997</v>
-      </c>
       <c r="J65">
         <v>0.7000000000000002</v>
       </c>
@@ -5505,7 +5466,7 @@
         <v>0.5</v>
       </c>
       <c r="O65">
-        <v>-0.04799999999999999</v>
+        <v>-0.04800000000000004</v>
       </c>
       <c r="P65">
         <v>0.7999999999999998</v>
@@ -5723,7 +5684,7 @@
         <v>3.4</v>
       </c>
       <c r="U2">
-        <v>0.7120000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="V2">
         <v>3.2</v>
@@ -5923,7 +5884,7 @@
         <v>5.7</v>
       </c>
       <c r="U6">
-        <v>0.7070000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="V6">
         <v>2.7</v>
@@ -6055,9 +6016,6 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>-2351</v>
-      </c>
       <c r="J8">
         <v>-1.2</v>
       </c>
@@ -6074,7 +6032,7 @@
         <v>1.3</v>
       </c>
       <c r="O8">
-        <v>0.009000000000000064</v>
+        <v>0.008999999999999952</v>
       </c>
       <c r="P8">
         <v>-1.5</v>
@@ -6083,7 +6041,7 @@
         <v>-1.9</v>
       </c>
       <c r="R8">
-        <v>-0.05799999999999994</v>
+        <v>-0.058</v>
       </c>
       <c r="S8">
         <v>0.4000000000000004</v>
@@ -6092,7 +6050,7 @@
         <v>-0.5</v>
       </c>
       <c r="U8">
-        <v>0.1679999999999999</v>
+        <v>0.168</v>
       </c>
       <c r="V8">
         <v>0.5</v>
@@ -6316,9 +6274,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>-2909</v>
-      </c>
       <c r="J11">
         <v>1.100000000000001</v>
       </c>
@@ -6344,7 +6299,7 @@
         <v>4.699999999999999</v>
       </c>
       <c r="R11">
-        <v>-0.03399999999999997</v>
+        <v>-0.03400000000000003</v>
       </c>
       <c r="S11">
         <v>1.3</v>
@@ -6540,7 +6495,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="U13">
-        <v>0.7390000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="V13">
         <v>1.2</v>
@@ -6577,9 +6532,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>-2734</v>
-      </c>
       <c r="J14">
         <v>-0.3000000000000007</v>
       </c>
@@ -6614,7 +6566,7 @@
         <v>2.4</v>
       </c>
       <c r="U14">
-        <v>-0.008999999999999897</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="V14">
         <v>-0.7</v>
@@ -6706,7 +6658,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="U15">
-        <v>0.7929999999999999</v>
+        <v>0.793</v>
       </c>
       <c r="V15">
         <v>1.5</v>
@@ -6838,9 +6790,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>-2646</v>
-      </c>
       <c r="J17">
         <v>-1.5</v>
       </c>
@@ -6848,7 +6797,7 @@
         <v>-2.800000000000001</v>
       </c>
       <c r="L17">
-        <v>-0.009000000000000064</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="M17">
         <v>-0.2000000000000002</v>
@@ -6875,7 +6824,7 @@
         <v>0</v>
       </c>
       <c r="U17">
-        <v>-0.01999999999999991</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="V17">
         <v>-0.3</v>
@@ -6967,7 +6916,7 @@
         <v>6.7</v>
       </c>
       <c r="U18">
-        <v>0.7959999999999999</v>
+        <v>0.796</v>
       </c>
       <c r="V18">
         <v>1.3</v>
@@ -7162,7 +7111,7 @@
         <v>6.1</v>
       </c>
       <c r="U21">
-        <v>0.8240000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="V21">
         <v>1.4</v>
@@ -7199,9 +7148,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>-2881</v>
-      </c>
       <c r="J22">
         <v>1.200000000000001</v>
       </c>
@@ -7227,7 +7173,7 @@
         <v>1.1</v>
       </c>
       <c r="R22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="S22">
         <v>0.09999999999999964</v>
@@ -7236,7 +7182,7 @@
         <v>-0.2000000000000002</v>
       </c>
       <c r="U22">
-        <v>0.05000000000000004</v>
+        <v>0.04999999999999993</v>
       </c>
       <c r="V22">
         <v>0.5999999999999999</v>
@@ -7428,7 +7374,7 @@
         <v>6.9</v>
       </c>
       <c r="U25">
-        <v>0.7070000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="V25">
         <v>0.8</v>
@@ -7560,9 +7506,6 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="I27">
-        <v>-2259</v>
-      </c>
       <c r="J27">
         <v>-0.9000000000000004</v>
       </c>
@@ -7570,7 +7513,7 @@
         <v>-0.3999999999999986</v>
       </c>
       <c r="L27">
-        <v>-0.03700000000000003</v>
+        <v>-0.03699999999999998</v>
       </c>
       <c r="M27">
         <v>-0.6000000000000001</v>
@@ -7597,7 +7540,7 @@
         <v>0.3999999999999995</v>
       </c>
       <c r="U27">
-        <v>0.02999999999999992</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="V27">
         <v>-0.2000000000000001</v>
@@ -7821,9 +7764,6 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="I30">
-        <v>-2193</v>
-      </c>
       <c r="J30">
         <v>0.9000000000000004</v>
       </c>
@@ -7840,7 +7780,7 @@
         <v>-0.9000000000000004</v>
       </c>
       <c r="O30">
-        <v>-0.08399999999999996</v>
+        <v>-0.08399999999999999</v>
       </c>
       <c r="P30">
         <v>1.500000000000001</v>
@@ -7950,7 +7890,7 @@
         <v>4.8</v>
       </c>
       <c r="U31">
-        <v>0.8009999999999999</v>
+        <v>0.801</v>
       </c>
       <c r="V31">
         <v>0.6</v>
@@ -8413,7 +8353,7 @@
         <v>9.9</v>
       </c>
       <c r="L39">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="M39">
         <v>0.6</v>
@@ -8572,9 +8512,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I41">
-        <v>-747</v>
-      </c>
       <c r="J41">
         <v>-0.2999999999999998</v>
       </c>
@@ -8582,7 +8519,7 @@
         <v>0.5</v>
       </c>
       <c r="L41">
-        <v>-0.05200000000000005</v>
+        <v>-0.05199999999999999</v>
       </c>
       <c r="M41">
         <v>-0.6</v>
@@ -8765,7 +8702,7 @@
         <v>9.9</v>
       </c>
       <c r="L44">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="M44">
         <v>0.6</v>
@@ -8918,9 +8855,6 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="I46">
-        <v>-747</v>
-      </c>
       <c r="J46">
         <v>-0.2999999999999998</v>
       </c>
@@ -8928,7 +8862,7 @@
         <v>0.5</v>
       </c>
       <c r="L46">
-        <v>-0.05200000000000005</v>
+        <v>-0.05199999999999999</v>
       </c>
       <c r="M46">
         <v>-0.6</v>
@@ -9261,9 +9195,6 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="I51">
-        <v>-10305</v>
-      </c>
       <c r="J51">
         <v>0.7000000000000011</v>
       </c>
@@ -9289,7 +9220,7 @@
         <v>1.600000000000001</v>
       </c>
       <c r="R51">
-        <v>0.01199999999999996</v>
+        <v>0.01200000000000001</v>
       </c>
       <c r="S51">
         <v>0.5999999999999996</v>
@@ -9604,9 +9535,6 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="I56">
-        <v>-10964</v>
-      </c>
       <c r="J56">
         <v>-0.09999999999999964</v>
       </c>
@@ -9632,7 +9560,7 @@
         <v>0.3000000000000007</v>
       </c>
       <c r="R56">
-        <v>0.002000000000000057</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="S56">
         <v>1.100000000000001</v>
@@ -9818,7 +9746,7 @@
         <v>5</v>
       </c>
       <c r="U59">
-        <v>0.7120000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="V59">
         <v>3.1</v>
@@ -9944,9 +9872,6 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="I61">
-        <v>-4636</v>
-      </c>
       <c r="J61">
         <v>-0.5999999999999996</v>
       </c>
@@ -9954,7 +9879,7 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="L61">
-        <v>-0.06199999999999994</v>
+        <v>-0.062</v>
       </c>
       <c r="M61">
         <v>0.3</v>
@@ -9963,7 +9888,7 @@
         <v>1.2</v>
       </c>
       <c r="O61">
-        <v>0.002000000000000057</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="P61">
         <v>-0.8999999999999995</v>
@@ -9981,7 +9906,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="U61">
-        <v>0.1629999999999999</v>
+        <v>0.163</v>
       </c>
       <c r="V61">
         <v>0.1000000000000001</v>
@@ -10187,9 +10112,6 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="I64">
-        <v>-28934</v>
-      </c>
       <c r="J64">
         <v>0.4000000000000004</v>
       </c>
@@ -10206,7 +10128,7 @@
         <v>0.2000000000000002</v>
       </c>
       <c r="O64">
-        <v>-0.04799999999999999</v>
+        <v>-0.04800000000000004</v>
       </c>
       <c r="P64">
         <v>0.5</v>
@@ -10428,7 +10350,7 @@
         <v>4.9</v>
       </c>
       <c r="U2">
-        <v>0.7120000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="V2">
         <v>4.6</v>
@@ -10640,7 +10562,7 @@
         <v>8.300000000000001</v>
       </c>
       <c r="U6">
-        <v>0.7070000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="V6">
         <v>4</v>
@@ -10784,9 +10706,6 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="I8">
-        <v>-2351</v>
-      </c>
       <c r="J8">
         <v>-1.199999999999999</v>
       </c>
@@ -10803,7 +10722,7 @@
         <v>2.1</v>
       </c>
       <c r="O8">
-        <v>0.009000000000000064</v>
+        <v>0.008999999999999952</v>
       </c>
       <c r="P8">
         <v>-1.800000000000001</v>
@@ -10812,7 +10731,7 @@
         <v>-1.5</v>
       </c>
       <c r="R8">
-        <v>-0.05799999999999994</v>
+        <v>-0.058</v>
       </c>
       <c r="S8">
         <v>1.2</v>
@@ -10821,7 +10740,7 @@
         <v>-0.3000000000000007</v>
       </c>
       <c r="U8">
-        <v>0.1679999999999999</v>
+        <v>0.168</v>
       </c>
       <c r="V8">
         <v>1</v>
@@ -11063,9 +10982,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="I11">
-        <v>-2909</v>
-      </c>
       <c r="J11">
         <v>1.600000000000001</v>
       </c>
@@ -11091,7 +11007,7 @@
         <v>6.799999999999997</v>
       </c>
       <c r="R11">
-        <v>-0.03399999999999997</v>
+        <v>-0.03400000000000003</v>
       </c>
       <c r="S11">
         <v>1.8</v>
@@ -11299,7 +11215,7 @@
         <v>14.1</v>
       </c>
       <c r="U13">
-        <v>0.7390000000000001</v>
+        <v>0.739</v>
       </c>
       <c r="V13">
         <v>1.8</v>
@@ -11342,9 +11258,6 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="I14">
-        <v>-2734</v>
-      </c>
       <c r="J14">
         <v>0.3000000000000007</v>
       </c>
@@ -11379,7 +11292,7 @@
         <v>4.299999999999999</v>
       </c>
       <c r="U14">
-        <v>-0.008999999999999897</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="V14">
         <v>-0.9000000000000001</v>
@@ -11477,7 +11390,7 @@
         <v>12.7</v>
       </c>
       <c r="U15">
-        <v>0.7929999999999999</v>
+        <v>0.793</v>
       </c>
       <c r="V15">
         <v>2.1</v>
@@ -11621,9 +11534,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="I17">
-        <v>-2646</v>
-      </c>
       <c r="J17">
         <v>-1.4</v>
       </c>
@@ -11631,7 +11541,7 @@
         <v>-2.400000000000002</v>
       </c>
       <c r="L17">
-        <v>-0.009000000000000064</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="M17">
         <v>-0.2000000000000002</v>
@@ -11658,7 +11568,7 @@
         <v>0.6000000000000014</v>
       </c>
       <c r="U17">
-        <v>-0.01999999999999991</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="V17">
         <v>-0.3</v>
@@ -11756,7 +11666,7 @@
         <v>9.9</v>
       </c>
       <c r="U18">
-        <v>0.7959999999999999</v>
+        <v>0.796</v>
       </c>
       <c r="V18">
         <v>1.9</v>
@@ -11963,7 +11873,7 @@
         <v>9.300000000000001</v>
       </c>
       <c r="U21">
-        <v>0.8240000000000001</v>
+        <v>0.824</v>
       </c>
       <c r="V21">
         <v>2.2</v>
@@ -12006,9 +11916,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="I22">
-        <v>-2881</v>
-      </c>
       <c r="J22">
         <v>2</v>
       </c>
@@ -12034,7 +11941,7 @@
         <v>2</v>
       </c>
       <c r="R22">
-        <v>0.02000000000000002</v>
+        <v>0.01999999999999996</v>
       </c>
       <c r="S22">
         <v>0.4000000000000004</v>
@@ -12043,7 +11950,7 @@
         <v>-0.1999999999999993</v>
       </c>
       <c r="U22">
-        <v>0.05000000000000004</v>
+        <v>0.04999999999999993</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -12247,7 +12154,7 @@
         <v>10.2</v>
       </c>
       <c r="U25">
-        <v>0.7070000000000001</v>
+        <v>0.707</v>
       </c>
       <c r="V25">
         <v>1.2</v>
@@ -12391,9 +12298,6 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="I27">
-        <v>-2259</v>
-      </c>
       <c r="J27">
         <v>-1</v>
       </c>
@@ -12401,7 +12305,7 @@
         <v>0.5</v>
       </c>
       <c r="L27">
-        <v>-0.03700000000000003</v>
+        <v>-0.03699999999999998</v>
       </c>
       <c r="M27">
         <v>-0.8</v>
@@ -12428,7 +12332,7 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>0.02999999999999992</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="V27">
         <v>-0.2</v>
@@ -12670,9 +12574,6 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="I30">
-        <v>-2193</v>
-      </c>
       <c r="J30">
         <v>2.299999999999999</v>
       </c>
@@ -12689,7 +12590,7 @@
         <v>-0.9000000000000004</v>
       </c>
       <c r="O30">
-        <v>-0.08399999999999996</v>
+        <v>-0.08399999999999999</v>
       </c>
       <c r="P30">
         <v>3</v>
@@ -12805,7 +12706,7 @@
         <v>7</v>
       </c>
       <c r="U31">
-        <v>0.8009999999999999</v>
+        <v>0.801</v>
       </c>
       <c r="V31">
         <v>0.9</v>
@@ -13298,7 +13199,7 @@
         <v>14.7</v>
       </c>
       <c r="L39">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -13469,9 +13370,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="I41">
-        <v>-747</v>
-      </c>
       <c r="J41">
         <v>-0.3000000000000007</v>
       </c>
@@ -13479,7 +13377,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="L41">
-        <v>-0.05200000000000005</v>
+        <v>-0.05199999999999999</v>
       </c>
       <c r="M41">
         <v>-1</v>
@@ -13674,7 +13572,7 @@
         <v>14.7</v>
       </c>
       <c r="L44">
-        <v>0.4370000000000001</v>
+        <v>0.437</v>
       </c>
       <c r="M44">
         <v>1</v>
@@ -13839,9 +13737,6 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="I46">
-        <v>-747</v>
-      </c>
       <c r="J46">
         <v>-0.3000000000000007</v>
       </c>
@@ -13849,7 +13744,7 @@
         <v>1.100000000000001</v>
       </c>
       <c r="L46">
-        <v>-0.05200000000000005</v>
+        <v>-0.05199999999999999</v>
       </c>
       <c r="M46">
         <v>-1</v>
@@ -14206,9 +14101,6 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="I51">
-        <v>-10305</v>
-      </c>
       <c r="J51">
         <v>1.5</v>
       </c>
@@ -14234,7 +14126,7 @@
         <v>3.199999999999999</v>
       </c>
       <c r="R51">
-        <v>0.01199999999999996</v>
+        <v>0.01200000000000001</v>
       </c>
       <c r="S51">
         <v>1</v>
@@ -14573,9 +14465,6 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="I56">
-        <v>-10964</v>
-      </c>
       <c r="J56">
         <v>0.1999999999999993</v>
       </c>
@@ -14601,7 +14490,7 @@
         <v>1.300000000000001</v>
       </c>
       <c r="R56">
-        <v>0.002000000000000057</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="S56">
         <v>1.9</v>
@@ -14799,7 +14688,7 @@
         <v>7.3</v>
       </c>
       <c r="U59">
-        <v>0.7120000000000001</v>
+        <v>0.712</v>
       </c>
       <c r="V59">
         <v>4.6</v>
@@ -14937,9 +14826,6 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="I61">
-        <v>-4636</v>
-      </c>
       <c r="J61">
         <v>-0.4000000000000004</v>
       </c>
@@ -14947,7 +14833,7 @@
         <v>2.200000000000003</v>
       </c>
       <c r="L61">
-        <v>-0.06199999999999994</v>
+        <v>-0.062</v>
       </c>
       <c r="M61">
         <v>0.6</v>
@@ -14956,7 +14842,7 @@
         <v>1.9</v>
       </c>
       <c r="O61">
-        <v>0.002000000000000057</v>
+        <v>0.002000000000000002</v>
       </c>
       <c r="P61">
         <v>-1</v>
@@ -14974,7 +14860,7 @@
         <v>0.7000000000000002</v>
       </c>
       <c r="U61">
-        <v>0.1629999999999999</v>
+        <v>0.163</v>
       </c>
       <c r="V61">
         <v>0.4000000000000004</v>
@@ -15198,9 +15084,6 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="I64">
-        <v>-28934</v>
-      </c>
       <c r="J64">
         <v>1.1</v>
       </c>
@@ -15217,7 +15100,7 @@
         <v>0.5999999999999996</v>
       </c>
       <c r="O64">
-        <v>-0.04799999999999999</v>
+        <v>-0.04800000000000004</v>
       </c>
       <c r="P64">
         <v>1.100000000000001</v>
@@ -15746,9 +15629,6 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="H8">
-        <v>-2351</v>
-      </c>
       <c r="I8">
         <v>-4.699999999999999</v>
       </c>
@@ -15992,9 +15872,6 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="H11">
-        <v>-2909</v>
-      </c>
       <c r="I11">
         <v>1.900000000000002</v>
       </c>
@@ -16041,7 +15918,7 @@
         <v>-11.7</v>
       </c>
       <c r="Y11">
-        <v>-0.05099999999999996</v>
+        <v>-0.05099999999999999</v>
       </c>
       <c r="AA11">
         <v>0.9000000000000004</v>
@@ -16174,7 +16051,7 @@
         <v>25.6</v>
       </c>
       <c r="J13">
-        <v>0.5529999999999999</v>
+        <v>0.553</v>
       </c>
       <c r="K13">
         <v>0.176</v>
@@ -16238,14 +16115,11 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="H14">
-        <v>-2734</v>
-      </c>
       <c r="I14">
         <v>0.5</v>
       </c>
       <c r="J14">
-        <v>0.02099999999999991</v>
+        <v>0.02100000000000002</v>
       </c>
       <c r="K14">
         <v>-0.002000000000000002</v>
@@ -16287,7 +16161,7 @@
         <v>-10.9</v>
       </c>
       <c r="Y14">
-        <v>-0.03099999999999997</v>
+        <v>-0.031</v>
       </c>
       <c r="AA14">
         <v>1.699999999999999</v>
@@ -16484,9 +16358,6 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="H17">
-        <v>-2646</v>
-      </c>
       <c r="I17">
         <v>-3.300000000000001</v>
       </c>
@@ -16533,7 +16404,7 @@
         <v>-14.9</v>
       </c>
       <c r="Y17">
-        <v>-0.08099999999999999</v>
+        <v>-0.08100000000000002</v>
       </c>
       <c r="AA17">
         <v>-0.2000000000000011</v>
@@ -16824,9 +16695,6 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="H22">
-        <v>-2881</v>
-      </c>
       <c r="I22">
         <v>4.300000000000001</v>
       </c>
@@ -16834,7 +16702,7 @@
         <v>0.03000000000000003</v>
       </c>
       <c r="K22">
-        <v>0.006999999999999951</v>
+        <v>0.007000000000000006</v>
       </c>
       <c r="L22">
         <v>-0.03800000000000003</v>
@@ -17164,9 +17032,6 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="H27">
-        <v>-2259</v>
-      </c>
       <c r="I27">
         <v>-2</v>
       </c>
@@ -17177,7 +17042,7 @@
         <v>-0.032</v>
       </c>
       <c r="L27">
-        <v>0.02600000000000002</v>
+        <v>0.02599999999999997</v>
       </c>
       <c r="M27">
         <v>-0.5</v>
@@ -17410,20 +17275,17 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="H30">
-        <v>-2193</v>
-      </c>
       <c r="I30">
         <v>6</v>
       </c>
       <c r="J30">
-        <v>-0.009000000000000064</v>
+        <v>-0.009000000000000008</v>
       </c>
       <c r="K30">
-        <v>-0.06200000000000003</v>
+        <v>-0.062</v>
       </c>
       <c r="L30">
-        <v>0.08900000000000002</v>
+        <v>0.08899999999999997</v>
       </c>
       <c r="M30">
         <v>1.1</v>
@@ -18116,9 +17978,6 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="H41">
-        <v>-747</v>
-      </c>
       <c r="I41">
         <v>-7.1</v>
       </c>
@@ -18126,7 +17985,7 @@
         <v>-0.07400000000000001</v>
       </c>
       <c r="K41">
-        <v>0.01099999999999998</v>
+        <v>0.01100000000000001</v>
       </c>
       <c r="L41">
         <v>-0.128</v>
@@ -18444,9 +18303,6 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="H46">
-        <v>-747</v>
-      </c>
       <c r="I46">
         <v>-7.1</v>
       </c>
@@ -18454,7 +18310,7 @@
         <v>-0.07400000000000001</v>
       </c>
       <c r="K46">
-        <v>0.01099999999999998</v>
+        <v>0.01100000000000001</v>
       </c>
       <c r="L46">
         <v>-0.128</v>
@@ -18766,9 +18622,6 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="H51">
-        <v>-10305</v>
-      </c>
       <c r="I51">
         <v>3.299999999999997</v>
       </c>
@@ -18776,10 +18629,10 @@
         <v>0</v>
       </c>
       <c r="K51">
-        <v>-0.02400000000000002</v>
+        <v>-0.02399999999999999</v>
       </c>
       <c r="L51">
-        <v>0.01799999999999996</v>
+        <v>0.01800000000000002</v>
       </c>
       <c r="M51">
         <v>0.8999999999999999</v>
@@ -18815,7 +18668,7 @@
         <v>-31</v>
       </c>
       <c r="Y51">
-        <v>-0.01400000000000001</v>
+        <v>-0.01399999999999998</v>
       </c>
       <c r="AA51">
         <v>2.2</v>
@@ -19088,9 +18941,6 @@
       <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="H56">
-        <v>-10964</v>
-      </c>
       <c r="I56">
         <v>0.2000000000000028</v>
       </c>
@@ -19098,7 +18948,7 @@
         <v>-0.002000000000000002</v>
       </c>
       <c r="K56">
-        <v>-0.01800000000000002</v>
+        <v>-0.01799999999999999</v>
       </c>
       <c r="L56">
         <v>0.066</v>
@@ -19410,9 +19260,6 @@
       <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="H61">
-        <v>-4636</v>
-      </c>
       <c r="I61">
         <v>-4.199999999999999</v>
       </c>
@@ -19638,9 +19485,6 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="H64">
-        <v>-28934</v>
-      </c>
       <c r="I64">
         <v>1.299999999999997</v>
       </c>
@@ -19651,7 +19495,7 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>0.02900000000000008</v>
+        <v>0.02899999999999997</v>
       </c>
       <c r="M64">
         <v>-0.5</v>

--- a/output/mcgratr01.xlsx
+++ b/output/mcgratr01.xlsx
@@ -25,7 +25,7 @@
     <t>Age</t>
   </si>
   <si>
-    <t>Team</t>
+    <t>Tm</t>
   </si>
   <si>
     <t>Lg</t>
